--- a/tools/autofill/data/stk.xlsx
+++ b/tools/autofill/data/stk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClaimGames\tools\autofill\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClaimGames\tools\vn168\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684BDAEF-14F5-4831-9CA2-68A5F308BB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C17105-7BE1-4DB8-90D4-9887AFD6C8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="705">
   <si>
     <t>profile</t>
   </si>
@@ -399,9 +399,6 @@
     <t>PHAM HUU MINH KIET</t>
   </si>
   <si>
-    <t>NGUYEN VAN TRINH</t>
-  </si>
-  <si>
     <t>NGUYEN THI THANH HUYEN</t>
   </si>
   <si>
@@ -429,841 +426,1720 @@
     <t>DIEP DANG KHOA</t>
   </si>
   <si>
-    <t>809736430</t>
-  </si>
-  <si>
-    <t>954300234</t>
-  </si>
-  <si>
-    <t>425377978</t>
-  </si>
-  <si>
-    <t>903247907</t>
-  </si>
-  <si>
-    <t>537173139</t>
-  </si>
-  <si>
-    <t>230388462</t>
-  </si>
-  <si>
-    <t>272031396</t>
-  </si>
-  <si>
-    <t>903754263</t>
-  </si>
-  <si>
-    <t>440437680</t>
-  </si>
-  <si>
-    <t>419909334</t>
-  </si>
-  <si>
-    <t>424787253</t>
-  </si>
-  <si>
-    <t>596218698</t>
-  </si>
-  <si>
-    <t>721300290</t>
-  </si>
-  <si>
-    <t>792821335</t>
-  </si>
-  <si>
-    <t>503194580</t>
-  </si>
-  <si>
-    <t>869791353</t>
-  </si>
-  <si>
-    <t>432578596</t>
-  </si>
-  <si>
-    <t>290552570</t>
-  </si>
-  <si>
-    <t>209843719</t>
-  </si>
-  <si>
-    <t>965503372</t>
-  </si>
-  <si>
-    <t>756102322</t>
-  </si>
-  <si>
-    <t>135324831</t>
-  </si>
-  <si>
-    <t>900920365</t>
-  </si>
-  <si>
-    <t>169673842</t>
-  </si>
-  <si>
-    <t>321484254</t>
-  </si>
-  <si>
-    <t>521441770</t>
-  </si>
-  <si>
-    <t>924901639</t>
-  </si>
-  <si>
-    <t>494242786</t>
-  </si>
-  <si>
-    <t>237599623</t>
-  </si>
-  <si>
-    <t>785486960</t>
-  </si>
-  <si>
-    <t>922563316</t>
-  </si>
-  <si>
-    <t>696270312</t>
-  </si>
-  <si>
-    <t>891488292</t>
-  </si>
-  <si>
-    <t>203245311</t>
-  </si>
-  <si>
-    <t>233724987</t>
-  </si>
-  <si>
-    <t>864711163</t>
-  </si>
-  <si>
-    <t>535540735</t>
-  </si>
-  <si>
-    <t>117585157</t>
-  </si>
-  <si>
-    <t>758416237</t>
-  </si>
-  <si>
-    <t>150663173</t>
-  </si>
-  <si>
-    <t>344417848</t>
-  </si>
-  <si>
-    <t>796850515</t>
-  </si>
-  <si>
-    <t>516848848</t>
-  </si>
-  <si>
-    <t>482046054</t>
-  </si>
-  <si>
-    <t>644857262</t>
-  </si>
-  <si>
-    <t>257514777</t>
-  </si>
-  <si>
-    <t>632614346</t>
-  </si>
-  <si>
-    <t>951756353</t>
-  </si>
-  <si>
-    <t>626552933</t>
-  </si>
-  <si>
-    <t>813492746</t>
-  </si>
-  <si>
-    <t>304672231</t>
-  </si>
-  <si>
-    <t>999768632</t>
-  </si>
-  <si>
-    <t>141773592</t>
-  </si>
-  <si>
-    <t>782042484</t>
-  </si>
-  <si>
-    <t>313729126</t>
-  </si>
-  <si>
-    <t>191076271</t>
-  </si>
-  <si>
-    <t>528643656</t>
-  </si>
-  <si>
-    <t>249279129</t>
-  </si>
-  <si>
-    <t>727532124</t>
-  </si>
-  <si>
-    <t>322788873</t>
-  </si>
-  <si>
-    <t>192488282</t>
-  </si>
-  <si>
-    <t>632523839</t>
-  </si>
-  <si>
-    <t>505190728</t>
-  </si>
-  <si>
-    <t>886238133</t>
-  </si>
-  <si>
-    <t>395790540</t>
-  </si>
-  <si>
-    <t>416467974</t>
-  </si>
-  <si>
-    <t>319564470</t>
-  </si>
-  <si>
-    <t>896923185</t>
-  </si>
-  <si>
-    <t>895677119</t>
-  </si>
-  <si>
-    <t>329890249</t>
-  </si>
-  <si>
-    <t>896788879</t>
-  </si>
-  <si>
-    <t>564327553</t>
-  </si>
-  <si>
-    <t>839549360</t>
-  </si>
-  <si>
-    <t>147198026</t>
-  </si>
-  <si>
-    <t>624268691</t>
-  </si>
-  <si>
-    <t>982841553</t>
-  </si>
-  <si>
-    <t>573401145</t>
-  </si>
-  <si>
-    <t>244377790</t>
-  </si>
-  <si>
-    <t>547391352</t>
-  </si>
-  <si>
-    <t>539780913</t>
-  </si>
-  <si>
-    <t>289065849</t>
-  </si>
-  <si>
-    <t>234251410</t>
-  </si>
-  <si>
-    <t>827470340</t>
-  </si>
-  <si>
-    <t>834582434</t>
-  </si>
-  <si>
-    <t>180558307</t>
-  </si>
-  <si>
-    <t>673469888</t>
-  </si>
-  <si>
-    <t>269018658</t>
-  </si>
-  <si>
-    <t>362458881</t>
-  </si>
-  <si>
-    <t>884712661</t>
-  </si>
-  <si>
-    <t>640099892</t>
-  </si>
-  <si>
-    <t>754487023</t>
-  </si>
-  <si>
-    <t>813886198</t>
-  </si>
-  <si>
-    <t>225240337</t>
-  </si>
-  <si>
-    <t>usertj6PW@gmail.com</t>
-  </si>
-  <si>
-    <t>userbrxTq@gmail.com</t>
-  </si>
-  <si>
-    <t>userkcuTz@gmail.com</t>
-  </si>
-  <si>
-    <t>userJoMhP@gmail.com</t>
-  </si>
-  <si>
-    <t>user9ws3f@gmail.com</t>
-  </si>
-  <si>
-    <t>userzMIUD@gmail.com</t>
-  </si>
-  <si>
-    <t>userRKg8g@gmail.com</t>
-  </si>
-  <si>
-    <t>userl3RzP@gmail.com</t>
-  </si>
-  <si>
-    <t>userOTWmq@gmail.com</t>
-  </si>
-  <si>
-    <t>usercrlFr@gmail.com</t>
-  </si>
-  <si>
-    <t>userXgQZp@gmail.com</t>
-  </si>
-  <si>
-    <t>userEhSUx@gmail.com</t>
-  </si>
-  <si>
-    <t>userlvlTA@gmail.com</t>
-  </si>
-  <si>
-    <t>userG2RER@gmail.com</t>
-  </si>
-  <si>
-    <t>user0lCYz@gmail.com</t>
-  </si>
-  <si>
-    <t>usern6BbP@gmail.com</t>
-  </si>
-  <si>
-    <t>userG6Lt4@gmail.com</t>
-  </si>
-  <si>
-    <t>useritjTJ@gmail.com</t>
-  </si>
-  <si>
-    <t>userOvlTO@gmail.com</t>
-  </si>
-  <si>
-    <t>userXB30a@gmail.com</t>
-  </si>
-  <si>
-    <t>userXgwFE@gmail.com</t>
-  </si>
-  <si>
-    <t>userBUSXW@gmail.com</t>
-  </si>
-  <si>
-    <t>userdcD1p@gmail.com</t>
-  </si>
-  <si>
-    <t>usere5G4i@gmail.com</t>
-  </si>
-  <si>
-    <t>userULTlY@gmail.com</t>
-  </si>
-  <si>
-    <t>usery6GYk@gmail.com</t>
-  </si>
-  <si>
-    <t>usercXtf8@gmail.com</t>
-  </si>
-  <si>
-    <t>userQQ6b5@gmail.com</t>
-  </si>
-  <si>
-    <t>userzFH2A@gmail.com</t>
-  </si>
-  <si>
-    <t>userkJHGK@gmail.com</t>
-  </si>
-  <si>
-    <t>userLMl2o@gmail.com</t>
-  </si>
-  <si>
-    <t>useruyDgm@gmail.com</t>
-  </si>
-  <si>
-    <t>usersFrOL@gmail.com</t>
-  </si>
-  <si>
-    <t>userpe6RL@gmail.com</t>
-  </si>
-  <si>
-    <t>user2t3KP@gmail.com</t>
-  </si>
-  <si>
-    <t>usertXfKd@gmail.com</t>
-  </si>
-  <si>
-    <t>userRMQiD@gmail.com</t>
-  </si>
-  <si>
-    <t>userIQP97@gmail.com</t>
-  </si>
-  <si>
-    <t>usercguvv@gmail.com</t>
-  </si>
-  <si>
-    <t>userg9Ktd@gmail.com</t>
-  </si>
-  <si>
-    <t>userhtJpJ@gmail.com</t>
-  </si>
-  <si>
-    <t>userQzWkV@gmail.com</t>
-  </si>
-  <si>
-    <t>userA2Xp6@gmail.com</t>
-  </si>
-  <si>
-    <t>userCxL6q@gmail.com</t>
-  </si>
-  <si>
-    <t>userRHloG@gmail.com</t>
-  </si>
-  <si>
-    <t>userD142I@gmail.com</t>
-  </si>
-  <si>
-    <t>userEU9bf@gmail.com</t>
-  </si>
-  <si>
-    <t>uservFMhw@gmail.com</t>
-  </si>
-  <si>
-    <t>user47kkT@gmail.com</t>
-  </si>
-  <si>
-    <t>usercKCQI@gmail.com</t>
-  </si>
-  <si>
-    <t>user8KxS2@gmail.com</t>
-  </si>
-  <si>
-    <t>userrDiQi@gmail.com</t>
-  </si>
-  <si>
-    <t>userUdbRu@gmail.com</t>
-  </si>
-  <si>
-    <t>user67lKL@gmail.com</t>
-  </si>
-  <si>
-    <t>userex5Lk@gmail.com</t>
-  </si>
-  <si>
-    <t>userFI3Qe@gmail.com</t>
-  </si>
-  <si>
-    <t>user2xR6w@gmail.com</t>
-  </si>
-  <si>
-    <t>userzfnFX@gmail.com</t>
-  </si>
-  <si>
-    <t>user1ZdtQ@gmail.com</t>
-  </si>
-  <si>
-    <t>userFkJgj@gmail.com</t>
-  </si>
-  <si>
-    <t>userfEAaN@gmail.com</t>
-  </si>
-  <si>
-    <t>userBB10b@gmail.com</t>
-  </si>
-  <si>
-    <t>userXgUTP@gmail.com</t>
-  </si>
-  <si>
-    <t>usermAFYI@gmail.com</t>
-  </si>
-  <si>
-    <t>userPdtmF@gmail.com</t>
-  </si>
-  <si>
-    <t>userKaemr@gmail.com</t>
-  </si>
-  <si>
-    <t>userVrmfP@gmail.com</t>
-  </si>
-  <si>
-    <t>userhDjYb@gmail.com</t>
-  </si>
-  <si>
-    <t>userKbpjn@gmail.com</t>
-  </si>
-  <si>
-    <t>userNqGog@gmail.com</t>
-  </si>
-  <si>
-    <t>user1KZRf@gmail.com</t>
-  </si>
-  <si>
-    <t>usereKwKU@gmail.com</t>
-  </si>
-  <si>
-    <t>userRDpme@gmail.com</t>
-  </si>
-  <si>
-    <t>useriUMmV@gmail.com</t>
-  </si>
-  <si>
-    <t>user09S54@gmail.com</t>
-  </si>
-  <si>
-    <t>userNJbRK@gmail.com</t>
-  </si>
-  <si>
-    <t>usernncTS@gmail.com</t>
-  </si>
-  <si>
-    <t>userBrbal@gmail.com</t>
-  </si>
-  <si>
-    <t>userxy2nY@gmail.com</t>
-  </si>
-  <si>
-    <t>userjm0GE@gmail.com</t>
-  </si>
-  <si>
-    <t>userP4cf8@gmail.com</t>
-  </si>
-  <si>
-    <t>userPvPrr@gmail.com</t>
-  </si>
-  <si>
-    <t>userXdaQR@gmail.com</t>
-  </si>
-  <si>
-    <t>userZjZw5@gmail.com</t>
-  </si>
-  <si>
-    <t>userUBLXs@gmail.com</t>
-  </si>
-  <si>
-    <t>user23tyK@gmail.com</t>
-  </si>
-  <si>
-    <t>user1Nb4i@gmail.com</t>
-  </si>
-  <si>
-    <t>usergB3Kn@gmail.com</t>
-  </si>
-  <si>
-    <t>userQcrJ1@gmail.com</t>
-  </si>
-  <si>
-    <t>useri48yK@gmail.com</t>
-  </si>
-  <si>
-    <t>userllQIv@gmail.com</t>
-  </si>
-  <si>
-    <t>userc59eC@gmail.com</t>
-  </si>
-  <si>
-    <t>userIEm3K@gmail.com</t>
-  </si>
-  <si>
-    <t>6652565367316</t>
-  </si>
-  <si>
-    <t>7481855346686</t>
-  </si>
-  <si>
-    <t>8274465367398</t>
-  </si>
-  <si>
-    <t>7166695664982</t>
-  </si>
-  <si>
-    <t>9039279863432</t>
-  </si>
-  <si>
-    <t>7737184634698</t>
-  </si>
-  <si>
-    <t>6328485367695</t>
-  </si>
-  <si>
-    <t>5811526676956</t>
-  </si>
-  <si>
-    <t>2946995667992</t>
-  </si>
-  <si>
-    <t>3786909866462</t>
-  </si>
-  <si>
-    <t>23454444443765</t>
-  </si>
-  <si>
-    <t>23457777774521</t>
-  </si>
-  <si>
-    <t>23458888883469</t>
-  </si>
-  <si>
-    <t>34564444442574</t>
-  </si>
-  <si>
-    <t>23457777776592</t>
-  </si>
-  <si>
-    <t>23454444441584</t>
-  </si>
-  <si>
-    <t>34568888886067</t>
-  </si>
-  <si>
-    <t>23457777772124</t>
-  </si>
-  <si>
-    <t>34565555552028</t>
-  </si>
-  <si>
-    <t>23454444442027</t>
-  </si>
-  <si>
-    <t>45673333336164</t>
-  </si>
-  <si>
-    <t>45672222224542</t>
-  </si>
-  <si>
-    <t>67894444442326</t>
-  </si>
-  <si>
-    <t>12347777775728</t>
-  </si>
-  <si>
-    <t>34565555557055</t>
-  </si>
-  <si>
-    <t>23457777771566</t>
-  </si>
-  <si>
-    <t>67897777771287</t>
-  </si>
-  <si>
-    <t>34569999997988</t>
-  </si>
-  <si>
-    <t>23454444446848</t>
-  </si>
-  <si>
-    <t>45671111110405</t>
-  </si>
-  <si>
-    <t>34562222220603</t>
-  </si>
-  <si>
-    <t>45673333330407</t>
-  </si>
-  <si>
-    <t>23457777772264</t>
-  </si>
-  <si>
-    <t>23458888883568</t>
-  </si>
-  <si>
-    <t>45673333338105</t>
-  </si>
-  <si>
-    <t>34562222223341</t>
-  </si>
-  <si>
-    <t>34561111115034</t>
-  </si>
-  <si>
-    <t>45671111115184</t>
-  </si>
-  <si>
-    <t>34568888880451</t>
-  </si>
-  <si>
-    <t>34568888880457</t>
-  </si>
-  <si>
-    <t>45672222220780</t>
-  </si>
-  <si>
-    <t>45673333330988</t>
-  </si>
-  <si>
-    <t>45679999993952</t>
-  </si>
-  <si>
-    <t>34564444449520</t>
-  </si>
-  <si>
-    <t>34569999992267</t>
-  </si>
-  <si>
-    <t>34562222225205</t>
-  </si>
-  <si>
-    <t>34565555552272</t>
-  </si>
-  <si>
-    <t>34565555557692</t>
-  </si>
-  <si>
-    <t>45675555557627</t>
-  </si>
-  <si>
-    <t>45675555559863</t>
-  </si>
-  <si>
-    <t>23458888886570</t>
-  </si>
-  <si>
-    <t>23459999991205</t>
-  </si>
-  <si>
-    <t>45672222221534</t>
-  </si>
-  <si>
-    <t>45673333339504</t>
-  </si>
-  <si>
-    <t>34562222229277</t>
-  </si>
-  <si>
-    <t>34569999993157</t>
-  </si>
-  <si>
-    <t>34563333339480</t>
-  </si>
-  <si>
-    <t>56787777772774</t>
-  </si>
-  <si>
-    <t>12342222223330</t>
-  </si>
-  <si>
-    <t>23451111112252</t>
-  </si>
-  <si>
-    <t>12342222227225</t>
-  </si>
-  <si>
-    <t>45673333330506</t>
-  </si>
-  <si>
-    <t>45673333332124</t>
-  </si>
-  <si>
-    <t>34568888880502</t>
-  </si>
-  <si>
-    <t>23457777770504</t>
-  </si>
-  <si>
-    <t>23457777770506</t>
-  </si>
-  <si>
-    <t>56784444442124</t>
-  </si>
-  <si>
-    <t>23452222229063</t>
-  </si>
-  <si>
-    <t>23451111116435</t>
-  </si>
-  <si>
-    <t>34562222220451</t>
-  </si>
-  <si>
-    <t>34561111113724</t>
-  </si>
-  <si>
-    <t>34562222223808</t>
-  </si>
-  <si>
-    <t>34562222223865</t>
-  </si>
-  <si>
-    <t>45679999990678</t>
-  </si>
-  <si>
-    <t>34563333332698</t>
-  </si>
-  <si>
-    <t>34564444442340</t>
-  </si>
-  <si>
-    <t>56787777775358</t>
-  </si>
-  <si>
-    <t>34565555552907</t>
-  </si>
-  <si>
-    <t>34568888881262</t>
-  </si>
-  <si>
-    <t>34563333331413</t>
-  </si>
-  <si>
-    <t>34568888883602</t>
-  </si>
-  <si>
-    <t>23457777772862</t>
-  </si>
-  <si>
-    <t>34565555556807</t>
-  </si>
-  <si>
-    <t>23457777774493</t>
-  </si>
-  <si>
-    <t>23457777778435</t>
-  </si>
-  <si>
-    <t>23453333334375</t>
-  </si>
-  <si>
-    <t>23451111110407</t>
-  </si>
-  <si>
-    <t>23457777774548</t>
-  </si>
-  <si>
-    <t>45672222223635</t>
-  </si>
-  <si>
-    <t>34562222225354</t>
-  </si>
-  <si>
-    <t>34561111116454</t>
-  </si>
-  <si>
-    <t>34562222229858</t>
-  </si>
-  <si>
-    <t>34562222229775</t>
+    <t>NGUYEN THUY HANG</t>
+  </si>
+  <si>
+    <t>DAO MY</t>
+  </si>
+  <si>
+    <t>0000092982193</t>
+  </si>
+  <si>
+    <t>1046154254616</t>
+  </si>
+  <si>
+    <t>1440397421584</t>
+  </si>
+  <si>
+    <t>3133986643265</t>
+  </si>
+  <si>
+    <t>3287987634695</t>
+  </si>
+  <si>
+    <t>4243487254362</t>
+  </si>
+  <si>
+    <t>4411238766462</t>
+  </si>
+  <si>
+    <t>4644281543697</t>
+  </si>
+  <si>
+    <t>5599679836498</t>
+  </si>
+  <si>
+    <t>5874478664662</t>
+  </si>
+  <si>
+    <t>0317068634665</t>
+  </si>
+  <si>
+    <t>0460242643198</t>
+  </si>
+  <si>
+    <t>0534630683649</t>
+  </si>
+  <si>
+    <t>0566793548158</t>
+  </si>
+  <si>
+    <t>0749481243830</t>
+  </si>
+  <si>
+    <t>0892664683942</t>
+  </si>
+  <si>
+    <t>1385864646665</t>
+  </si>
+  <si>
+    <t>7701115834692</t>
+  </si>
+  <si>
+    <t>9897943834992</t>
+  </si>
+  <si>
+    <t>12341111112293</t>
+  </si>
+  <si>
+    <t>12342222223911</t>
+  </si>
+  <si>
+    <t>12342222229672</t>
+  </si>
+  <si>
+    <t>12347777775850</t>
+  </si>
+  <si>
+    <t>12347777776069</t>
+  </si>
+  <si>
+    <t>12349999991393</t>
+  </si>
+  <si>
+    <t>12349999991750</t>
+  </si>
+  <si>
+    <t>23451111115682</t>
+  </si>
+  <si>
+    <t>23452222220637</t>
+  </si>
+  <si>
+    <t>23452222228099</t>
+  </si>
+  <si>
+    <t>12347777775970</t>
+  </si>
+  <si>
+    <t>12347777779602</t>
+  </si>
+  <si>
+    <t>12348888889279</t>
+  </si>
+  <si>
+    <t>12349999990598</t>
+  </si>
+  <si>
+    <t>12349999992986</t>
+  </si>
+  <si>
+    <t>23451111110846</t>
+  </si>
+  <si>
+    <t>23451111113434</t>
+  </si>
+  <si>
+    <t>23451111115784</t>
+  </si>
+  <si>
+    <t>23451111116497</t>
+  </si>
+  <si>
+    <t>23451111116974</t>
+  </si>
+  <si>
+    <t>23454444442497</t>
+  </si>
+  <si>
+    <t>23454444447615</t>
+  </si>
+  <si>
+    <t>34563333339156</t>
+  </si>
+  <si>
+    <t>45671111110160</t>
+  </si>
+  <si>
+    <t>45676666664104</t>
+  </si>
+  <si>
+    <t>23451111113692</t>
+  </si>
+  <si>
+    <t>23451111115427</t>
+  </si>
+  <si>
+    <t>23451111116731</t>
+  </si>
+  <si>
+    <t>23451111118684</t>
+  </si>
+  <si>
+    <t>23452222220789</t>
+  </si>
+  <si>
+    <t>0868917628</t>
+  </si>
+  <si>
+    <t>12341111112225</t>
+  </si>
+  <si>
+    <t>12342222220708</t>
+  </si>
+  <si>
+    <t>12342222226944</t>
+  </si>
+  <si>
+    <t>12346666665576</t>
+  </si>
+  <si>
+    <t>12346666667683</t>
+  </si>
+  <si>
+    <t>12347777770586</t>
+  </si>
+  <si>
+    <t>23451111110201</t>
+  </si>
+  <si>
+    <t>23451111110497</t>
+  </si>
+  <si>
+    <t>23451111112755</t>
+  </si>
+  <si>
+    <t>23453333335524</t>
+  </si>
+  <si>
+    <t>23454444446956</t>
+  </si>
+  <si>
+    <t>23457777773145</t>
+  </si>
+  <si>
+    <t>23457777775105</t>
+  </si>
+  <si>
+    <t>23458888882664</t>
+  </si>
+  <si>
+    <t>23458888882805</t>
+  </si>
+  <si>
+    <t>23458888886499</t>
+  </si>
+  <si>
+    <t>23458888887045</t>
+  </si>
+  <si>
+    <t>23458888887737</t>
+  </si>
+  <si>
+    <t>12341111116961</t>
+  </si>
+  <si>
+    <t>12347777771141</t>
+  </si>
+  <si>
+    <t>23451111113494</t>
+  </si>
+  <si>
+    <t>23451111115715</t>
+  </si>
+  <si>
+    <t>23451111117856</t>
+  </si>
+  <si>
+    <t>23451111118580</t>
+  </si>
+  <si>
+    <t>23453333339901</t>
+  </si>
+  <si>
+    <t>23454444441263</t>
+  </si>
+  <si>
+    <t>23454444442868</t>
+  </si>
+  <si>
+    <t>23454444445287</t>
+  </si>
+  <si>
+    <t>23457777771025</t>
+  </si>
+  <si>
+    <t>23457777774251</t>
+  </si>
+  <si>
+    <t>23457777779812</t>
+  </si>
+  <si>
+    <t>23458888883386</t>
+  </si>
+  <si>
+    <t>23458888887973</t>
+  </si>
+  <si>
+    <t>23458888889898</t>
+  </si>
+  <si>
+    <t>34561111114964</t>
+  </si>
+  <si>
+    <t>34561111119127</t>
+  </si>
+  <si>
+    <t>34562222221746</t>
+  </si>
+  <si>
+    <t>34562222223484</t>
+  </si>
+  <si>
+    <t>34562222225327</t>
+  </si>
+  <si>
+    <t>34562222225824</t>
+  </si>
+  <si>
+    <t>34563333331793</t>
+  </si>
+  <si>
+    <t>34563333334378</t>
+  </si>
+  <si>
+    <t>12348888884770</t>
+  </si>
+  <si>
+    <t>12348888887436</t>
+  </si>
+  <si>
+    <t>23451111112606</t>
+  </si>
+  <si>
+    <t>23451111118317</t>
+  </si>
+  <si>
+    <t>23451111119454</t>
+  </si>
+  <si>
+    <t>23452222224619</t>
+  </si>
+  <si>
+    <t>23452222225503</t>
+  </si>
+  <si>
+    <t>23452222227855</t>
+  </si>
+  <si>
+    <t>23452222228727</t>
+  </si>
+  <si>
+    <t>23453333330250</t>
+  </si>
+  <si>
+    <t>0911470051</t>
+  </si>
+  <si>
+    <t>12347777778914</t>
+  </si>
+  <si>
+    <t>12348888886702</t>
+  </si>
+  <si>
+    <t>12348888886722</t>
+  </si>
+  <si>
+    <t>12348888887862</t>
+  </si>
+  <si>
+    <t>23451111112554</t>
+  </si>
+  <si>
+    <t>23451111118347</t>
+  </si>
+  <si>
+    <t>23453333338366</t>
+  </si>
+  <si>
+    <t>23454444442959</t>
+  </si>
+  <si>
+    <t>23457777771746</t>
+  </si>
+  <si>
+    <t>23451111116218</t>
+  </si>
+  <si>
+    <t>23453333337044</t>
+  </si>
+  <si>
+    <t>23457777778893</t>
+  </si>
+  <si>
+    <t>23458888885480</t>
+  </si>
+  <si>
+    <t>34565555550585</t>
+  </si>
+  <si>
+    <t>34565555550751</t>
+  </si>
+  <si>
+    <t>34565555558895</t>
+  </si>
+  <si>
+    <t>45676666664157</t>
+  </si>
+  <si>
+    <t>0950378904561</t>
+  </si>
+  <si>
+    <t>12342222229495</t>
+  </si>
+  <si>
+    <t>12343333339260</t>
+  </si>
+  <si>
+    <t>12349999994239</t>
+  </si>
+  <si>
+    <t>23451111110452</t>
+  </si>
+  <si>
+    <t>23451111110906</t>
+  </si>
+  <si>
+    <t>23451111110986</t>
+  </si>
+  <si>
+    <t>23451111113608</t>
+  </si>
+  <si>
+    <t>23451111115724</t>
+  </si>
+  <si>
+    <t>23452222220683</t>
+  </si>
+  <si>
+    <t>23452222221562</t>
+  </si>
+  <si>
+    <t>0847511202</t>
+  </si>
+  <si>
+    <t>12343333330957</t>
+  </si>
+  <si>
+    <t>12347777771433</t>
+  </si>
+  <si>
+    <t>12348888887416</t>
+  </si>
+  <si>
+    <t>23451111116705</t>
+  </si>
+  <si>
+    <t>23452222225643</t>
+  </si>
+  <si>
+    <t>23453333334136</t>
+  </si>
+  <si>
+    <t>23453333339277</t>
+  </si>
+  <si>
+    <t>23454444441262</t>
+  </si>
+  <si>
+    <t>23454444441265</t>
+  </si>
+  <si>
+    <t>12346666660686</t>
+  </si>
+  <si>
+    <t>12346666664800</t>
+  </si>
+  <si>
+    <t>23451111118925</t>
+  </si>
+  <si>
+    <t>23452222228628</t>
+  </si>
+  <si>
+    <t>23453333332637</t>
+  </si>
+  <si>
+    <t>23453333336897</t>
+  </si>
+  <si>
+    <t>23453333339348</t>
+  </si>
+  <si>
+    <t>23457777773931</t>
+  </si>
+  <si>
+    <t>23457777774637</t>
+  </si>
+  <si>
+    <t>23454444442475</t>
+  </si>
+  <si>
+    <t>23454444445767</t>
+  </si>
+  <si>
+    <t>23457777773893</t>
+  </si>
+  <si>
+    <t>23459999998351</t>
+  </si>
+  <si>
+    <t>34561111118814</t>
+  </si>
+  <si>
+    <t>34565555556544</t>
+  </si>
+  <si>
+    <t>56785555550091</t>
+  </si>
+  <si>
+    <t>0956935346995</t>
+  </si>
+  <si>
+    <t>12342222229436</t>
+  </si>
+  <si>
+    <t>12347777773819</t>
+  </si>
+  <si>
+    <t>12347777776513</t>
+  </si>
+  <si>
+    <t>12347777779236</t>
+  </si>
+  <si>
+    <t>12347777779559</t>
+  </si>
+  <si>
+    <t>12349999996957</t>
+  </si>
+  <si>
+    <t>23451111110504</t>
+  </si>
+  <si>
+    <t>23451111113989</t>
+  </si>
+  <si>
+    <t>23451111116800</t>
+  </si>
+  <si>
+    <t>23451111118130</t>
+  </si>
+  <si>
+    <t>23452222220976</t>
+  </si>
+  <si>
+    <t>23452222225061</t>
+  </si>
+  <si>
+    <t>12341111112775</t>
+  </si>
+  <si>
+    <t>12348888880851</t>
+  </si>
+  <si>
+    <t>12349999997744</t>
+  </si>
+  <si>
+    <t>23451111113429</t>
+  </si>
+  <si>
+    <t>23451111118612</t>
+  </si>
+  <si>
+    <t>23451111119461</t>
+  </si>
+  <si>
+    <t>23453333335084</t>
+  </si>
+  <si>
+    <t>23454444445455</t>
+  </si>
+  <si>
+    <t>23458888885787</t>
+  </si>
+  <si>
+    <t>23459999993930</t>
+  </si>
+  <si>
+    <t>23454444445893</t>
+  </si>
+  <si>
+    <t>23457777771817</t>
+  </si>
+  <si>
+    <t>23458888882722</t>
+  </si>
+  <si>
+    <t>34561111110076</t>
+  </si>
+  <si>
+    <t>34563333332489</t>
+  </si>
+  <si>
+    <t>34564444442983</t>
+  </si>
+  <si>
+    <t>34565555554266</t>
+  </si>
+  <si>
+    <t>34565555557762</t>
+  </si>
+  <si>
+    <t>34569999990237</t>
+  </si>
+  <si>
+    <t>34569999993448</t>
+  </si>
+  <si>
+    <t>847183813</t>
+  </si>
+  <si>
+    <t>144560249</t>
+  </si>
+  <si>
+    <t>251895360</t>
+  </si>
+  <si>
+    <t>254705774</t>
+  </si>
+  <si>
+    <t>608385161</t>
+  </si>
+  <si>
+    <t>554562956</t>
+  </si>
+  <si>
+    <t>280349044</t>
+  </si>
+  <si>
+    <t>601276055</t>
+  </si>
+  <si>
+    <t>294918195</t>
+  </si>
+  <si>
+    <t>854818240</t>
+  </si>
+  <si>
+    <t>299613540</t>
+  </si>
+  <si>
+    <t>114483130</t>
+  </si>
+  <si>
+    <t>588605926</t>
+  </si>
+  <si>
+    <t>653539459</t>
+  </si>
+  <si>
+    <t>150018957</t>
+  </si>
+  <si>
+    <t>737613663</t>
+  </si>
+  <si>
+    <t>764702898</t>
+  </si>
+  <si>
+    <t>286166721</t>
+  </si>
+  <si>
+    <t>535043057</t>
+  </si>
+  <si>
+    <t>436720448</t>
+  </si>
+  <si>
+    <t>434920649</t>
+  </si>
+  <si>
+    <t>230380445</t>
+  </si>
+  <si>
+    <t>865759847</t>
+  </si>
+  <si>
+    <t>600708068</t>
+  </si>
+  <si>
+    <t>276067633</t>
+  </si>
+  <si>
+    <t>653782480</t>
+  </si>
+  <si>
+    <t>442064105</t>
+  </si>
+  <si>
+    <t>171376349</t>
+  </si>
+  <si>
+    <t>762308068</t>
+  </si>
+  <si>
+    <t>605882051</t>
+  </si>
+  <si>
+    <t>150929002</t>
+  </si>
+  <si>
+    <t>555423270</t>
+  </si>
+  <si>
+    <t>597355866</t>
+  </si>
+  <si>
+    <t>203697744</t>
+  </si>
+  <si>
+    <t>817683045</t>
+  </si>
+  <si>
+    <t>166416206</t>
+  </si>
+  <si>
+    <t>790315465</t>
+  </si>
+  <si>
+    <t>470182012</t>
+  </si>
+  <si>
+    <t>552021844</t>
+  </si>
+  <si>
+    <t>601858781</t>
+  </si>
+  <si>
+    <t>260722363</t>
+  </si>
+  <si>
+    <t>933460113</t>
+  </si>
+  <si>
+    <t>663977353</t>
+  </si>
+  <si>
+    <t>200931225</t>
+  </si>
+  <si>
+    <t>939064235</t>
+  </si>
+  <si>
+    <t>460326010</t>
+  </si>
+  <si>
+    <t>653018017</t>
+  </si>
+  <si>
+    <t>830045461</t>
+  </si>
+  <si>
+    <t>993126976</t>
+  </si>
+  <si>
+    <t>524001152</t>
+  </si>
+  <si>
+    <t>506961046</t>
+  </si>
+  <si>
+    <t>206029086</t>
+  </si>
+  <si>
+    <t>502349910</t>
+  </si>
+  <si>
+    <t>193834522</t>
+  </si>
+  <si>
+    <t>641995313</t>
+  </si>
+  <si>
+    <t>890537625</t>
+  </si>
+  <si>
+    <t>399769927</t>
+  </si>
+  <si>
+    <t>361186150</t>
+  </si>
+  <si>
+    <t>270842988</t>
+  </si>
+  <si>
+    <t>940856654</t>
+  </si>
+  <si>
+    <t>137419700</t>
+  </si>
+  <si>
+    <t>636742166</t>
+  </si>
+  <si>
+    <t>247372600</t>
+  </si>
+  <si>
+    <t>526040172</t>
+  </si>
+  <si>
+    <t>750662783</t>
+  </si>
+  <si>
+    <t>414405744</t>
+  </si>
+  <si>
+    <t>502816692</t>
+  </si>
+  <si>
+    <t>502227486</t>
+  </si>
+  <si>
+    <t>466566223</t>
+  </si>
+  <si>
+    <t>906804333</t>
+  </si>
+  <si>
+    <t>172253686</t>
+  </si>
+  <si>
+    <t>764765529</t>
+  </si>
+  <si>
+    <t>832141088</t>
+  </si>
+  <si>
+    <t>850682069</t>
+  </si>
+  <si>
+    <t>854632145</t>
+  </si>
+  <si>
+    <t>157437206</t>
+  </si>
+  <si>
+    <t>752343378</t>
+  </si>
+  <si>
+    <t>168120808</t>
+  </si>
+  <si>
+    <t>599789160</t>
+  </si>
+  <si>
+    <t>265103342</t>
+  </si>
+  <si>
+    <t>269568124</t>
+  </si>
+  <si>
+    <t>262761356</t>
+  </si>
+  <si>
+    <t>616087790</t>
+  </si>
+  <si>
+    <t>323183521</t>
+  </si>
+  <si>
+    <t>941543096</t>
+  </si>
+  <si>
+    <t>384537672</t>
+  </si>
+  <si>
+    <t>342472612</t>
+  </si>
+  <si>
+    <t>190075444</t>
+  </si>
+  <si>
+    <t>616369148</t>
+  </si>
+  <si>
+    <t>167443115</t>
+  </si>
+  <si>
+    <t>984471236</t>
+  </si>
+  <si>
+    <t>624618486</t>
+  </si>
+  <si>
+    <t>817516049</t>
+  </si>
+  <si>
+    <t>588077302</t>
+  </si>
+  <si>
+    <t>430510198</t>
+  </si>
+  <si>
+    <t>990048127</t>
+  </si>
+  <si>
+    <t>171201446</t>
+  </si>
+  <si>
+    <t>763729089</t>
+  </si>
+  <si>
+    <t>976198060</t>
+  </si>
+  <si>
+    <t>413005566</t>
+  </si>
+  <si>
+    <t>889309110</t>
+  </si>
+  <si>
+    <t>207535590</t>
+  </si>
+  <si>
+    <t>156624701</t>
+  </si>
+  <si>
+    <t>472174056</t>
+  </si>
+  <si>
+    <t>151732436</t>
+  </si>
+  <si>
+    <t>718153430</t>
+  </si>
+  <si>
+    <t>442454633</t>
+  </si>
+  <si>
+    <t>787120066</t>
+  </si>
+  <si>
+    <t>979424414</t>
+  </si>
+  <si>
+    <t>780162891</t>
+  </si>
+  <si>
+    <t>483543994</t>
+  </si>
+  <si>
+    <t>979480425</t>
+  </si>
+  <si>
+    <t>964609166</t>
+  </si>
+  <si>
+    <t>633543603</t>
+  </si>
+  <si>
+    <t>761761539</t>
+  </si>
+  <si>
+    <t>496865242</t>
+  </si>
+  <si>
+    <t>694228404</t>
+  </si>
+  <si>
+    <t>924900960</t>
+  </si>
+  <si>
+    <t>609312996</t>
+  </si>
+  <si>
+    <t>835853451</t>
+  </si>
+  <si>
+    <t>422313676</t>
+  </si>
+  <si>
+    <t>301906889</t>
+  </si>
+  <si>
+    <t>226818546</t>
+  </si>
+  <si>
+    <t>552020872</t>
+  </si>
+  <si>
+    <t>849927220</t>
+  </si>
+  <si>
+    <t>122314698</t>
+  </si>
+  <si>
+    <t>374456509</t>
+  </si>
+  <si>
+    <t>546502274</t>
+  </si>
+  <si>
+    <t>646487560</t>
+  </si>
+  <si>
+    <t>508803336</t>
+  </si>
+  <si>
+    <t>920770301</t>
+  </si>
+  <si>
+    <t>581263144</t>
+  </si>
+  <si>
+    <t>704802870</t>
+  </si>
+  <si>
+    <t>401913386</t>
+  </si>
+  <si>
+    <t>972799016</t>
+  </si>
+  <si>
+    <t>243486092</t>
+  </si>
+  <si>
+    <t>397309073</t>
+  </si>
+  <si>
+    <t>823233174</t>
+  </si>
+  <si>
+    <t>544698117</t>
+  </si>
+  <si>
+    <t>431038907</t>
+  </si>
+  <si>
+    <t>292849299</t>
+  </si>
+  <si>
+    <t>593111069</t>
+  </si>
+  <si>
+    <t>205524322</t>
+  </si>
+  <si>
+    <t>643665067</t>
+  </si>
+  <si>
+    <t>457394864</t>
+  </si>
+  <si>
+    <t>140399490</t>
+  </si>
+  <si>
+    <t>658143285</t>
+  </si>
+  <si>
+    <t>271655921</t>
+  </si>
+  <si>
+    <t>487280163</t>
+  </si>
+  <si>
+    <t>240520776</t>
+  </si>
+  <si>
+    <t>962502983</t>
+  </si>
+  <si>
+    <t>453103222</t>
+  </si>
+  <si>
+    <t>143143253</t>
+  </si>
+  <si>
+    <t>744707531</t>
+  </si>
+  <si>
+    <t>794467945</t>
+  </si>
+  <si>
+    <t>700171998</t>
+  </si>
+  <si>
+    <t>755714392</t>
+  </si>
+  <si>
+    <t>284277021</t>
+  </si>
+  <si>
+    <t>281582136</t>
+  </si>
+  <si>
+    <t>263061936</t>
+  </si>
+  <si>
+    <t>571991052</t>
+  </si>
+  <si>
+    <t>882583955</t>
+  </si>
+  <si>
+    <t>579525084</t>
+  </si>
+  <si>
+    <t>996333186</t>
+  </si>
+  <si>
+    <t>124400257</t>
+  </si>
+  <si>
+    <t>272747479</t>
+  </si>
+  <si>
+    <t>336531780</t>
+  </si>
+  <si>
+    <t>982723166</t>
+  </si>
+  <si>
+    <t>314056234</t>
+  </si>
+  <si>
+    <t>168032475</t>
+  </si>
+  <si>
+    <t>204332627</t>
+  </si>
+  <si>
+    <t>132255448</t>
+  </si>
+  <si>
+    <t>868839114</t>
+  </si>
+  <si>
+    <t>986106343</t>
+  </si>
+  <si>
+    <t>259897960</t>
+  </si>
+  <si>
+    <t>187114333</t>
+  </si>
+  <si>
+    <t>389972090</t>
+  </si>
+  <si>
+    <t>588287311</t>
+  </si>
+  <si>
+    <t>491334792</t>
+  </si>
+  <si>
+    <t>914322190</t>
+  </si>
+  <si>
+    <t>448170142</t>
+  </si>
+  <si>
+    <t>238130293</t>
+  </si>
+  <si>
+    <t>818123589</t>
+  </si>
+  <si>
+    <t>647596344</t>
+  </si>
+  <si>
+    <t>243384879</t>
+  </si>
+  <si>
+    <t>321369674</t>
+  </si>
+  <si>
+    <t>460500526</t>
+  </si>
+  <si>
+    <t>969102781</t>
+  </si>
+  <si>
+    <t>978454691</t>
+  </si>
+  <si>
+    <t>956911495</t>
+  </si>
+  <si>
+    <t>userTWXgD@gmail.com</t>
+  </si>
+  <si>
+    <t>userbZqKN@gmail.com</t>
+  </si>
+  <si>
+    <t>useri0wnN@gmail.com</t>
+  </si>
+  <si>
+    <t>userkkjUy@gmail.com</t>
+  </si>
+  <si>
+    <t>userBOZIJ@gmail.com</t>
+  </si>
+  <si>
+    <t>usercgvk0@gmail.com</t>
+  </si>
+  <si>
+    <t>userR9JxU@gmail.com</t>
+  </si>
+  <si>
+    <t>userRzqEp@gmail.com</t>
+  </si>
+  <si>
+    <t>useroKIKX@gmail.com</t>
+  </si>
+  <si>
+    <t>user0o40a@gmail.com</t>
+  </si>
+  <si>
+    <t>userj5bBN@gmail.com</t>
+  </si>
+  <si>
+    <t>userBlF9B@gmail.com</t>
+  </si>
+  <si>
+    <t>userBQH5X@gmail.com</t>
+  </si>
+  <si>
+    <t>userw7V2P@gmail.com</t>
+  </si>
+  <si>
+    <t>userug8o4@gmail.com</t>
+  </si>
+  <si>
+    <t>userxVRgN@gmail.com</t>
+  </si>
+  <si>
+    <t>userxYxP4@gmail.com</t>
+  </si>
+  <si>
+    <t>userszji7@gmail.com</t>
+  </si>
+  <si>
+    <t>user9hEPK@gmail.com</t>
+  </si>
+  <si>
+    <t>userKgeBv@gmail.com</t>
+  </si>
+  <si>
+    <t>userIlNs1@gmail.com</t>
+  </si>
+  <si>
+    <t>userwkbUI@gmail.com</t>
+  </si>
+  <si>
+    <t>user47WfP@gmail.com</t>
+  </si>
+  <si>
+    <t>user1Kxiw@gmail.com</t>
+  </si>
+  <si>
+    <t>userYzomT@gmail.com</t>
+  </si>
+  <si>
+    <t>user4G9Mp@gmail.com</t>
+  </si>
+  <si>
+    <t>userPhtqp@gmail.com</t>
+  </si>
+  <si>
+    <t>userKB0c9@gmail.com</t>
+  </si>
+  <si>
+    <t>userCxJ7k@gmail.com</t>
+  </si>
+  <si>
+    <t>userU5Tom@gmail.com</t>
+  </si>
+  <si>
+    <t>user8RPbM@gmail.com</t>
+  </si>
+  <si>
+    <t>userRdGBS@gmail.com</t>
+  </si>
+  <si>
+    <t>userKITjj@gmail.com</t>
+  </si>
+  <si>
+    <t>userd2Vh4@gmail.com</t>
+  </si>
+  <si>
+    <t>userpWvFv@gmail.com</t>
+  </si>
+  <si>
+    <t>usert17Xi@gmail.com</t>
+  </si>
+  <si>
+    <t>userHpLQ7@gmail.com</t>
+  </si>
+  <si>
+    <t>user2drUc@gmail.com</t>
+  </si>
+  <si>
+    <t>useroeWZp@gmail.com</t>
+  </si>
+  <si>
+    <t>usercAVXn@gmail.com</t>
+  </si>
+  <si>
+    <t>userCZFua@gmail.com</t>
+  </si>
+  <si>
+    <t>userMCLb6@gmail.com</t>
+  </si>
+  <si>
+    <t>usern4m6h@gmail.com</t>
+  </si>
+  <si>
+    <t>user4GibC@gmail.com</t>
+  </si>
+  <si>
+    <t>userdmge9@gmail.com</t>
+  </si>
+  <si>
+    <t>userzgC8B@gmail.com</t>
+  </si>
+  <si>
+    <t>userdXYED@gmail.com</t>
+  </si>
+  <si>
+    <t>userSgQVS@gmail.com</t>
+  </si>
+  <si>
+    <t>userI6LEI@gmail.com</t>
+  </si>
+  <si>
+    <t>userA9Mem@gmail.com</t>
+  </si>
+  <si>
+    <t>userhdvS7@gmail.com</t>
+  </si>
+  <si>
+    <t>usergOUoF@gmail.com</t>
+  </si>
+  <si>
+    <t>userqli2A@gmail.com</t>
+  </si>
+  <si>
+    <t>userfNbTW@gmail.com</t>
+  </si>
+  <si>
+    <t>userFT3Ud@gmail.com</t>
+  </si>
+  <si>
+    <t>usertXE0U@gmail.com</t>
+  </si>
+  <si>
+    <t>userUKYIY@gmail.com</t>
+  </si>
+  <si>
+    <t>userc1DBj@gmail.com</t>
+  </si>
+  <si>
+    <t>userTwJuo@gmail.com</t>
+  </si>
+  <si>
+    <t>userOo5tn@gmail.com</t>
+  </si>
+  <si>
+    <t>userOypS1@gmail.com</t>
+  </si>
+  <si>
+    <t>userMEWqU@gmail.com</t>
+  </si>
+  <si>
+    <t>usereipSv@gmail.com</t>
+  </si>
+  <si>
+    <t>userqdqXw@gmail.com</t>
+  </si>
+  <si>
+    <t>userAupEj@gmail.com</t>
+  </si>
+  <si>
+    <t>usertPY0b@gmail.com</t>
+  </si>
+  <si>
+    <t>userAdWjU@gmail.com</t>
+  </si>
+  <si>
+    <t>userhH0x5@gmail.com</t>
+  </si>
+  <si>
+    <t>userZECRk@gmail.com</t>
+  </si>
+  <si>
+    <t>user8Et2y@gmail.com</t>
+  </si>
+  <si>
+    <t>userwPbYm@gmail.com</t>
+  </si>
+  <si>
+    <t>user0fpyL@gmail.com</t>
+  </si>
+  <si>
+    <t>userFn9gU@gmail.com</t>
+  </si>
+  <si>
+    <t>userzAm1m@gmail.com</t>
+  </si>
+  <si>
+    <t>useroSa6h@gmail.com</t>
+  </si>
+  <si>
+    <t>userR2JgH@gmail.com</t>
+  </si>
+  <si>
+    <t>userBSxlK@gmail.com</t>
+  </si>
+  <si>
+    <t>user3KuyF@gmail.com</t>
+  </si>
+  <si>
+    <t>userX3CZr@gmail.com</t>
+  </si>
+  <si>
+    <t>user9S2kg@gmail.com</t>
+  </si>
+  <si>
+    <t>user7FLHl@gmail.com</t>
+  </si>
+  <si>
+    <t>userF8vwX@gmail.com</t>
+  </si>
+  <si>
+    <t>userYqAHw@gmail.com</t>
+  </si>
+  <si>
+    <t>userGQIE5@gmail.com</t>
+  </si>
+  <si>
+    <t>usercoxFj@gmail.com</t>
+  </si>
+  <si>
+    <t>userwsIxl@gmail.com</t>
+  </si>
+  <si>
+    <t>user1Iqbi@gmail.com</t>
+  </si>
+  <si>
+    <t>userpRXDw@gmail.com</t>
+  </si>
+  <si>
+    <t>userQm0UK@gmail.com</t>
+  </si>
+  <si>
+    <t>userVYSD2@gmail.com</t>
+  </si>
+  <si>
+    <t>user4Ttle@gmail.com</t>
+  </si>
+  <si>
+    <t>user5yITw@gmail.com</t>
+  </si>
+  <si>
+    <t>userrIios@gmail.com</t>
+  </si>
+  <si>
+    <t>userxBNCz@gmail.com</t>
+  </si>
+  <si>
+    <t>userVw6RK@gmail.com</t>
+  </si>
+  <si>
+    <t>userpyQNC@gmail.com</t>
+  </si>
+  <si>
+    <t>userr5u3q@gmail.com</t>
+  </si>
+  <si>
+    <t>userqbpF8@gmail.com</t>
+  </si>
+  <si>
+    <t>user1w4o3@gmail.com</t>
+  </si>
+  <si>
+    <t>userknXTU@gmail.com</t>
+  </si>
+  <si>
+    <t>user9vm3a@gmail.com</t>
+  </si>
+  <si>
+    <t>userf83Sj@gmail.com</t>
+  </si>
+  <si>
+    <t>useronpue@gmail.com</t>
+  </si>
+  <si>
+    <t>userVx5N8@gmail.com</t>
+  </si>
+  <si>
+    <t>userbnXdQ@gmail.com</t>
+  </si>
+  <si>
+    <t>user6olED@gmail.com</t>
+  </si>
+  <si>
+    <t>userPkad7@gmail.com</t>
+  </si>
+  <si>
+    <t>userSUQbW@gmail.com</t>
+  </si>
+  <si>
+    <t>userNJciy@gmail.com</t>
+  </si>
+  <si>
+    <t>userKd7LU@gmail.com</t>
+  </si>
+  <si>
+    <t>userTtq75@gmail.com</t>
+  </si>
+  <si>
+    <t>userYClRA@gmail.com</t>
+  </si>
+  <si>
+    <t>userNuhe3@gmail.com</t>
+  </si>
+  <si>
+    <t>userie0Db@gmail.com</t>
+  </si>
+  <si>
+    <t>userYmwzm@gmail.com</t>
+  </si>
+  <si>
+    <t>userTfRkS@gmail.com</t>
+  </si>
+  <si>
+    <t>user59Kvm@gmail.com</t>
+  </si>
+  <si>
+    <t>usergezJe@gmail.com</t>
+  </si>
+  <si>
+    <t>userc3ZfZ@gmail.com</t>
+  </si>
+  <si>
+    <t>userMhG1I@gmail.com</t>
+  </si>
+  <si>
+    <t>useresO1o@gmail.com</t>
+  </si>
+  <si>
+    <t>userLFPrK@gmail.com</t>
+  </si>
+  <si>
+    <t>userjU2II@gmail.com</t>
+  </si>
+  <si>
+    <t>usernvuYp@gmail.com</t>
+  </si>
+  <si>
+    <t>userVjRQz@gmail.com</t>
+  </si>
+  <si>
+    <t>useras4cm@gmail.com</t>
+  </si>
+  <si>
+    <t>user2VoU3@gmail.com</t>
+  </si>
+  <si>
+    <t>userblMhv@gmail.com</t>
+  </si>
+  <si>
+    <t>user4vZk5@gmail.com</t>
+  </si>
+  <si>
+    <t>userZGHhd@gmail.com</t>
+  </si>
+  <si>
+    <t>userJqVlT@gmail.com</t>
+  </si>
+  <si>
+    <t>userNQPrk@gmail.com</t>
+  </si>
+  <si>
+    <t>userNpaQm@gmail.com</t>
+  </si>
+  <si>
+    <t>userzCcSh@gmail.com</t>
+  </si>
+  <si>
+    <t>usertToTx@gmail.com</t>
+  </si>
+  <si>
+    <t>userYoGSq@gmail.com</t>
+  </si>
+  <si>
+    <t>usernGgpv@gmail.com</t>
+  </si>
+  <si>
+    <t>userHePsu@gmail.com</t>
+  </si>
+  <si>
+    <t>userdkKu4@gmail.com</t>
+  </si>
+  <si>
+    <t>userVX9HH@gmail.com</t>
+  </si>
+  <si>
+    <t>useru6T3d@gmail.com</t>
+  </si>
+  <si>
+    <t>userQUhYa@gmail.com</t>
+  </si>
+  <si>
+    <t>useryOQDC@gmail.com</t>
+  </si>
+  <si>
+    <t>usergm0Av@gmail.com</t>
+  </si>
+  <si>
+    <t>userBEX1g@gmail.com</t>
+  </si>
+  <si>
+    <t>user7jThy@gmail.com</t>
+  </si>
+  <si>
+    <t>userHwleA@gmail.com</t>
+  </si>
+  <si>
+    <t>userIq4gy@gmail.com</t>
+  </si>
+  <si>
+    <t>userVqNUn@gmail.com</t>
+  </si>
+  <si>
+    <t>userT6iPx@gmail.com</t>
+  </si>
+  <si>
+    <t>userWDj1C@gmail.com</t>
+  </si>
+  <si>
+    <t>userNm7D2@gmail.com</t>
+  </si>
+  <si>
+    <t>userwPRih@gmail.com</t>
+  </si>
+  <si>
+    <t>userrp3HU@gmail.com</t>
+  </si>
+  <si>
+    <t>usernqUR3@gmail.com</t>
+  </si>
+  <si>
+    <t>userwSic4@gmail.com</t>
+  </si>
+  <si>
+    <t>userQInfh@gmail.com</t>
+  </si>
+  <si>
+    <t>user07bAN@gmail.com</t>
+  </si>
+  <si>
+    <t>userIzts7@gmail.com</t>
+  </si>
+  <si>
+    <t>userFJAYr@gmail.com</t>
+  </si>
+  <si>
+    <t>usermyvTh@gmail.com</t>
+  </si>
+  <si>
+    <t>user0HfHF@gmail.com</t>
+  </si>
+  <si>
+    <t>userttgsW@gmail.com</t>
+  </si>
+  <si>
+    <t>uservqz9p@gmail.com</t>
+  </si>
+  <si>
+    <t>userqkhm8@gmail.com</t>
+  </si>
+  <si>
+    <t>userlZI2x@gmail.com</t>
+  </si>
+  <si>
+    <t>userCjzPQ@gmail.com</t>
+  </si>
+  <si>
+    <t>userAccH2@gmail.com</t>
+  </si>
+  <si>
+    <t>useryqoYD@gmail.com</t>
+  </si>
+  <si>
+    <t>userbUdnI@gmail.com</t>
+  </si>
+  <si>
+    <t>user9ucC4@gmail.com</t>
+  </si>
+  <si>
+    <t>userN3bS6@gmail.com</t>
+  </si>
+  <si>
+    <t>userFvEcj@gmail.com</t>
+  </si>
+  <si>
+    <t>user40DWi@gmail.com</t>
+  </si>
+  <si>
+    <t>user402Mf@gmail.com</t>
+  </si>
+  <si>
+    <t>userjAf1R@gmail.com</t>
+  </si>
+  <si>
+    <t>user8N1Ci@gmail.com</t>
+  </si>
+  <si>
+    <t>user0OB49@gmail.com</t>
+  </si>
+  <si>
+    <t>userD0ret@gmail.com</t>
+  </si>
+  <si>
+    <t>userMkfIn@gmail.com</t>
+  </si>
+  <si>
+    <t>userqfVAz@gmail.com</t>
+  </si>
+  <si>
+    <t>userz6rDj@gmail.com</t>
+  </si>
+  <si>
+    <t>userW3cXD@gmail.com</t>
+  </si>
+  <si>
+    <t>usert4XfA@gmail.com</t>
+  </si>
+  <si>
+    <t>user8mLn2@gmail.com</t>
+  </si>
+  <si>
+    <t>userZUzYu@gmail.com</t>
+  </si>
+  <si>
+    <t>userGrFNb@gmail.com</t>
+  </si>
+  <si>
+    <t>usermSazP@gmail.com</t>
+  </si>
+  <si>
+    <t>user8tklD@gmail.com</t>
+  </si>
+  <si>
+    <t>userV9psI@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1318,13 +2194,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,10 +2515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D7A48-6AAD-4875-977B-B5247510D6AE}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1683,15 +2558,15 @@
         <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>320</v>
+        <v>135</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>325</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1703,15 +2578,15 @@
         <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>321</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1723,15 +2598,15 @@
         <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>136</v>
+        <v>327</v>
       </c>
       <c r="E4" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1743,15 +2618,15 @@
         <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>323</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1763,15 +2638,15 @@
         <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>324</v>
+        <v>139</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>138</v>
+        <v>329</v>
       </c>
       <c r="E6" t="s">
-        <v>231</v>
-      </c>
-      <c r="F6" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1783,15 +2658,15 @@
         <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>325</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>330</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1803,15 +2678,15 @@
         <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F8" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1823,15 +2698,15 @@
         <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>327</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
+        <v>332</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1843,15 +2718,15 @@
         <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>142</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1863,15 +2738,15 @@
         <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>329</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>143</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1882,16 +2757,16 @@
       <c r="B12" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>330</v>
+      <c r="C12" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>144</v>
+        <v>335</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1902,16 +2777,16 @@
       <c r="B13" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>331</v>
+      <c r="C13" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F13" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1922,16 +2797,16 @@
       <c r="B14" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>332</v>
+      <c r="C14" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>146</v>
+        <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1942,16 +2817,16 @@
       <c r="B15" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>333</v>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="E15" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1962,16 +2837,16 @@
       <c r="B16" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>334</v>
+      <c r="C16" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>148</v>
+        <v>339</v>
       </c>
       <c r="E16" t="s">
-        <v>241</v>
-      </c>
-      <c r="F16" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1982,16 +2857,16 @@
       <c r="B17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>335</v>
+      <c r="C17" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2000,18 +2875,18 @@
         <v>82</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>336</v>
+        <v>116</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>150</v>
+        <v>341</v>
       </c>
       <c r="E18" t="s">
-        <v>243</v>
-      </c>
-      <c r="F18" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2020,18 +2895,18 @@
         <v>83</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>337</v>
+        <v>116</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>151</v>
+        <v>342</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
-      </c>
-      <c r="F19" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2040,18 +2915,18 @@
         <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>338</v>
+        <v>116</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="E20" t="s">
-        <v>245</v>
-      </c>
-      <c r="F20" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2062,16 +2937,16 @@
       <c r="B21" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>339</v>
+      <c r="C21" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>153</v>
+        <v>344</v>
       </c>
       <c r="E21" t="s">
-        <v>246</v>
-      </c>
-      <c r="F21" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2080,18 +2955,18 @@
         <v>86</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>340</v>
+        <v>117</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>154</v>
+        <v>345</v>
       </c>
       <c r="E22" t="s">
-        <v>247</v>
-      </c>
-      <c r="F22" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2100,18 +2975,18 @@
         <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>341</v>
+        <v>117</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2120,18 +2995,18 @@
         <v>88</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>342</v>
+        <v>117</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>156</v>
+        <v>347</v>
       </c>
       <c r="E24" t="s">
-        <v>249</v>
-      </c>
-      <c r="F24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2140,18 +3015,18 @@
         <v>89</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>343</v>
+        <v>117</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="E25" t="s">
-        <v>250</v>
-      </c>
-      <c r="F25" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2160,18 +3035,18 @@
         <v>90</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>344</v>
+        <v>117</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>158</v>
+        <v>349</v>
       </c>
       <c r="E26" t="s">
-        <v>251</v>
-      </c>
-      <c r="F26" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2180,18 +3055,18 @@
         <v>91</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>345</v>
+        <v>117</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="E27" t="s">
-        <v>252</v>
-      </c>
-      <c r="F27" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2200,18 +3075,18 @@
         <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>346</v>
+        <v>117</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>160</v>
+        <v>351</v>
       </c>
       <c r="E28" t="s">
-        <v>253</v>
-      </c>
-      <c r="F28" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2220,18 +3095,18 @@
         <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>347</v>
+        <v>117</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>161</v>
+        <v>352</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2240,18 +3115,18 @@
         <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>348</v>
+        <v>117</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>162</v>
+        <v>353</v>
       </c>
       <c r="E30" t="s">
-        <v>255</v>
-      </c>
-      <c r="F30" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2260,18 +3135,18 @@
         <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>349</v>
+        <v>118</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>163</v>
+        <v>354</v>
       </c>
       <c r="E31" t="s">
-        <v>256</v>
-      </c>
-      <c r="F31" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2280,18 +3155,18 @@
         <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>350</v>
+        <v>118</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="E32" t="s">
-        <v>257</v>
-      </c>
-      <c r="F32" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2300,18 +3175,18 @@
         <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>351</v>
+        <v>118</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>165</v>
+        <v>356</v>
       </c>
       <c r="E33" t="s">
-        <v>258</v>
-      </c>
-      <c r="F33" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2320,18 +3195,18 @@
         <v>98</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>352</v>
+        <v>118</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>166</v>
+        <v>357</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2340,18 +3215,18 @@
         <v>99</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>353</v>
+        <v>118</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>167</v>
+        <v>358</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2360,18 +3235,18 @@
         <v>100</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>354</v>
+        <v>118</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>168</v>
+        <v>359</v>
       </c>
       <c r="E36" t="s">
-        <v>261</v>
-      </c>
-      <c r="F36" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2380,18 +3255,18 @@
         <v>101</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>355</v>
+        <v>118</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2400,18 +3275,18 @@
         <v>102</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>356</v>
+        <v>118</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>170</v>
+        <v>361</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2420,18 +3295,18 @@
         <v>103</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>357</v>
+        <v>118</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>171</v>
+        <v>362</v>
       </c>
       <c r="E39" t="s">
-        <v>264</v>
-      </c>
-      <c r="F39" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2440,18 +3315,18 @@
         <v>104</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>358</v>
+        <v>118</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>172</v>
+        <v>363</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
-      </c>
-      <c r="F40" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2460,18 +3335,18 @@
         <v>105</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>359</v>
+        <v>119</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>173</v>
+        <v>364</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
-      </c>
-      <c r="F41" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2480,18 +3355,18 @@
         <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>360</v>
+        <v>119</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>174</v>
+        <v>365</v>
       </c>
       <c r="E42" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2500,18 +3375,18 @@
         <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>361</v>
+        <v>119</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>175</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
-      </c>
-      <c r="F43" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2520,18 +3395,18 @@
         <v>108</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>362</v>
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>176</v>
+        <v>367</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
-      </c>
-      <c r="F44" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2540,18 +3415,18 @@
         <v>109</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>363</v>
+        <v>119</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
-        <v>270</v>
-      </c>
-      <c r="F45" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2560,18 +3435,18 @@
         <v>110</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>364</v>
+        <v>120</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
-      </c>
-      <c r="F46" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2580,18 +3455,18 @@
         <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>365</v>
+        <v>120</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>179</v>
+        <v>370</v>
       </c>
       <c r="E47" t="s">
-        <v>272</v>
-      </c>
-      <c r="F47" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2600,18 +3475,18 @@
         <v>112</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>366</v>
+        <v>120</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>180</v>
+        <v>371</v>
       </c>
       <c r="E48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F48" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2620,18 +3495,18 @@
         <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>367</v>
+        <v>120</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>181</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
-      </c>
-      <c r="F49" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2640,18 +3515,18 @@
         <v>114</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>368</v>
+        <v>120</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>182</v>
+        <v>373</v>
       </c>
       <c r="E50" t="s">
-        <v>275</v>
-      </c>
-      <c r="F50" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2660,18 +3535,18 @@
         <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>369</v>
+        <v>120</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>183</v>
+        <v>374</v>
       </c>
       <c r="E51" t="s">
-        <v>276</v>
-      </c>
-      <c r="F51" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2680,18 +3555,18 @@
         <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>370</v>
+        <v>120</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>184</v>
+        <v>375</v>
       </c>
       <c r="E52" t="s">
-        <v>277</v>
-      </c>
-      <c r="F52" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2700,18 +3575,18 @@
         <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>371</v>
+        <v>120</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>185</v>
+        <v>376</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
-      </c>
-      <c r="F53" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2720,18 +3595,18 @@
         <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>372</v>
+        <v>120</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>186</v>
+        <v>377</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
-      </c>
-      <c r="F54" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2740,18 +3615,18 @@
         <v>109</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>373</v>
+        <v>120</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>187</v>
+        <v>378</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
-      </c>
-      <c r="F55" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2760,18 +3635,18 @@
         <v>111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>374</v>
+        <v>120</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>188</v>
+        <v>379</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
-      </c>
-      <c r="F56" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2780,18 +3655,18 @@
         <v>114</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>375</v>
+        <v>120</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>189</v>
+        <v>380</v>
       </c>
       <c r="E57" t="s">
-        <v>282</v>
-      </c>
-      <c r="F57" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2800,18 +3675,18 @@
         <v>115</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>376</v>
+        <v>120</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>190</v>
+        <v>381</v>
       </c>
       <c r="E58" t="s">
-        <v>283</v>
-      </c>
-      <c r="F58" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2820,18 +3695,18 @@
         <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>377</v>
+        <v>120</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="E59" t="s">
-        <v>284</v>
-      </c>
-      <c r="F59" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2840,18 +3715,18 @@
         <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>378</v>
+        <v>120</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>192</v>
+        <v>383</v>
       </c>
       <c r="E60" t="s">
-        <v>285</v>
-      </c>
-      <c r="F60" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2860,18 +3735,18 @@
         <v>127</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>379</v>
+        <v>121</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="E61" t="s">
-        <v>286</v>
-      </c>
-      <c r="F61" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2880,18 +3755,18 @@
         <v>128</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>380</v>
+        <v>121</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>385</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
-      </c>
-      <c r="F62" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2900,18 +3775,18 @@
         <v>131</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>381</v>
+        <v>121</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>195</v>
+        <v>386</v>
       </c>
       <c r="E63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F63" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2920,18 +3795,18 @@
         <v>132</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>382</v>
+        <v>121</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>196</v>
+        <v>387</v>
       </c>
       <c r="E64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F64" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2940,18 +3815,18 @@
         <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>383</v>
+        <v>121</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>198</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>197</v>
+        <v>388</v>
       </c>
       <c r="E65" t="s">
-        <v>290</v>
-      </c>
-      <c r="F65" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2960,18 +3835,18 @@
         <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>384</v>
+        <v>121</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="E66" t="s">
-        <v>291</v>
-      </c>
-      <c r="F66" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2980,18 +3855,18 @@
         <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>385</v>
+        <v>121</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>199</v>
+        <v>390</v>
       </c>
       <c r="E67" t="s">
-        <v>292</v>
-      </c>
-      <c r="F67" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3000,18 +3875,18 @@
         <v>137</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>386</v>
+        <v>121</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>200</v>
+        <v>391</v>
       </c>
       <c r="E68" t="s">
-        <v>293</v>
-      </c>
-      <c r="F68" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3020,18 +3895,18 @@
         <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>387</v>
+        <v>121</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>201</v>
+        <v>392</v>
       </c>
       <c r="E69" t="s">
-        <v>294</v>
-      </c>
-      <c r="F69" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3040,18 +3915,18 @@
         <v>141</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>388</v>
+        <v>122</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>202</v>
+        <v>393</v>
       </c>
       <c r="E70" t="s">
-        <v>295</v>
-      </c>
-      <c r="F70" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3060,18 +3935,18 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>389</v>
+        <v>122</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>394</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
-      </c>
-      <c r="F71" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3080,18 +3955,18 @@
         <v>143</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>390</v>
+        <v>122</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>395</v>
       </c>
       <c r="E72" t="s">
-        <v>297</v>
-      </c>
-      <c r="F72" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3100,18 +3975,18 @@
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>391</v>
+        <v>122</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>206</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>205</v>
+        <v>396</v>
       </c>
       <c r="E73" t="s">
-        <v>298</v>
-      </c>
-      <c r="F73" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3120,18 +3995,18 @@
         <v>148</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>392</v>
+        <v>122</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>206</v>
+        <v>397</v>
       </c>
       <c r="E74" t="s">
-        <v>299</v>
-      </c>
-      <c r="F74" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3140,18 +4015,18 @@
         <v>149</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>393</v>
+        <v>122</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>207</v>
+        <v>398</v>
       </c>
       <c r="E75" t="s">
-        <v>300</v>
-      </c>
-      <c r="F75" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3160,18 +4035,18 @@
         <v>150</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>394</v>
+        <v>122</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>208</v>
+        <v>399</v>
       </c>
       <c r="E76" t="s">
-        <v>301</v>
-      </c>
-      <c r="F76" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3180,18 +4055,18 @@
         <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>395</v>
+        <v>122</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>209</v>
+        <v>400</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
-      </c>
-      <c r="F77" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3200,18 +4075,18 @@
         <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>396</v>
+        <v>122</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>210</v>
+        <v>401</v>
       </c>
       <c r="E78" t="s">
-        <v>303</v>
-      </c>
-      <c r="F78" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3220,18 +4095,18 @@
         <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>397</v>
+        <v>122</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>211</v>
+        <v>402</v>
       </c>
       <c r="E79" t="s">
-        <v>304</v>
-      </c>
-      <c r="F79" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3240,18 +4115,18 @@
         <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>398</v>
+        <v>123</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>212</v>
+        <v>403</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
-      </c>
-      <c r="F80" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3260,18 +4135,18 @@
         <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>399</v>
+        <v>123</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
-      </c>
-      <c r="F81" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3280,18 +4155,18 @@
         <v>159</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>400</v>
+        <v>123</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>214</v>
+        <v>405</v>
       </c>
       <c r="E82" t="s">
-        <v>307</v>
-      </c>
-      <c r="F82" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3300,18 +4175,18 @@
         <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>401</v>
+        <v>123</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="E83" t="s">
-        <v>308</v>
-      </c>
-      <c r="F83" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3320,18 +4195,18 @@
         <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>402</v>
+        <v>123</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="E84" t="s">
-        <v>309</v>
-      </c>
-      <c r="F84" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3340,18 +4215,18 @@
         <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>403</v>
+        <v>123</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="E85" t="s">
-        <v>310</v>
-      </c>
-      <c r="F85" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3360,18 +4235,18 @@
         <v>168</v>
       </c>
       <c r="B86" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>404</v>
+        <v>123</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>218</v>
+        <v>409</v>
       </c>
       <c r="E86" t="s">
-        <v>311</v>
-      </c>
-      <c r="F86" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3380,18 +4255,18 @@
         <v>170</v>
       </c>
       <c r="B87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>405</v>
+        <v>123</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>219</v>
+        <v>410</v>
       </c>
       <c r="E87" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3400,18 +4275,18 @@
         <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>406</v>
+        <v>123</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>220</v>
+        <v>411</v>
       </c>
       <c r="E88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F88" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3420,18 +4295,18 @@
         <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>132</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>407</v>
+        <v>123</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>221</v>
+        <v>412</v>
       </c>
       <c r="E89" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3440,18 +4315,18 @@
         <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>132</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>408</v>
+        <v>123</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>222</v>
+        <v>413</v>
       </c>
       <c r="E90" t="s">
-        <v>315</v>
-      </c>
-      <c r="F90" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3460,18 +4335,18 @@
         <v>180</v>
       </c>
       <c r="B91" t="s">
-        <v>132</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>409</v>
+        <v>123</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>223</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>316</v>
-      </c>
-      <c r="F91" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3480,18 +4355,18 @@
         <v>181</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>410</v>
+        <v>123</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>224</v>
+        <v>415</v>
       </c>
       <c r="E92" t="s">
-        <v>317</v>
-      </c>
-      <c r="F92" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3500,18 +4375,18 @@
         <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>411</v>
+        <v>123</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
-      </c>
-      <c r="F93" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3520,41 +4395,1676 @@
         <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>412</v>
+        <v>124</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>226</v>
+        <v>417</v>
       </c>
       <c r="E94" t="s">
-        <v>319</v>
-      </c>
-      <c r="F94" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E95" t="s">
+        <v>608</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E96" t="s">
+        <v>609</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>124</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" t="s">
+        <v>610</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E98" t="s">
+        <v>611</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E99" t="s">
+        <v>612</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E100" t="s">
+        <v>613</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
+      <c r="B101" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="E101" t="s">
+        <v>614</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E102" t="s">
+        <v>615</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E103" t="s">
+        <v>616</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E104" t="s">
+        <v>617</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>125</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E105" t="s">
+        <v>618</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>125</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" t="s">
+        <v>619</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E107" t="s">
+        <v>620</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E108" t="s">
+        <v>621</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>125</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E109" t="s">
+        <v>622</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" t="s">
+        <v>623</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="E111" t="s">
+        <v>624</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>125</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E112" t="s">
+        <v>625</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>125</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E113" t="s">
+        <v>626</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="E114" t="s">
+        <v>627</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E115" t="s">
+        <v>628</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>126</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="E116" t="s">
+        <v>629</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E117" t="s">
+        <v>630</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E118" t="s">
+        <v>631</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E119" t="s">
+        <v>632</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>133</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E120" t="s">
+        <v>633</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E121" t="s">
+        <v>634</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E122" t="s">
+        <v>635</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E123" t="s">
+        <v>636</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E124" t="s">
+        <v>637</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E125" t="s">
+        <v>638</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E126" t="s">
+        <v>639</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="E127" t="s">
+        <v>640</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>127</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E128" t="s">
+        <v>641</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="E129" t="s">
+        <v>642</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E130" t="s">
+        <v>643</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E131" t="s">
+        <v>644</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E132" t="s">
+        <v>645</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E133" t="s">
+        <v>646</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E134" t="s">
+        <v>647</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>128</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E135" t="s">
+        <v>648</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="136" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>128</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E136" t="s">
+        <v>649</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>128</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="E137" t="s">
+        <v>650</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>128</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E138" t="s">
+        <v>651</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>128</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E139" t="s">
+        <v>652</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>128</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E140" t="s">
+        <v>653</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="E141" t="s">
+        <v>654</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E142" t="s">
+        <v>655</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E143" t="s">
+        <v>656</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E144" t="s">
+        <v>657</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>129</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E145" t="s">
+        <v>658</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>129</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="E146" t="s">
+        <v>659</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>129</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E147" t="s">
+        <v>660</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="148" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E148" t="s">
+        <v>661</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>129</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E149" t="s">
+        <v>662</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E150" t="s">
+        <v>663</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E151" t="s">
+        <v>664</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>130</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E152" t="s">
+        <v>665</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>130</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E153" t="s">
+        <v>666</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="E154" t="s">
+        <v>667</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>130</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E155" t="s">
+        <v>668</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>130</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E156" t="s">
+        <v>669</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>130</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E157" t="s">
+        <v>670</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>130</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="E158" t="s">
+        <v>671</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>131</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E159" t="s">
+        <v>672</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>131</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="E160" t="s">
+        <v>673</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>131</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="E161" t="s">
+        <v>674</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>131</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="E162" t="s">
+        <v>675</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>131</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="E163" t="s">
+        <v>676</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>131</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="E164" t="s">
+        <v>677</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>131</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="E165" t="s">
+        <v>678</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>131</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E166" t="s">
+        <v>679</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>131</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E167" t="s">
+        <v>680</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>131</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="E168" t="s">
+        <v>681</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>131</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="E169" t="s">
+        <v>682</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>131</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="E170" t="s">
+        <v>683</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E171" t="s">
+        <v>684</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>132</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="E172" t="s">
+        <v>685</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>132</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E173" t="s">
+        <v>686</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>132</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E174" t="s">
+        <v>687</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>132</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="E175" t="s">
+        <v>688</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>132</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E176" t="s">
+        <v>689</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>132</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="E177" t="s">
+        <v>690</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>132</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E178" t="s">
+        <v>691</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>132</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E179" t="s">
+        <v>692</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>132</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E180" t="s">
+        <v>693</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>132</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E181" t="s">
+        <v>694</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E182" t="s">
+        <v>695</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="E183" t="s">
+        <v>696</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="E184" t="s">
+        <v>697</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="E185" t="s">
+        <v>698</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E186" t="s">
+        <v>699</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>134</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E187" t="s">
+        <v>700</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E188" t="s">
+        <v>701</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E189" t="s">
+        <v>702</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>134</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E190" t="s">
+        <v>703</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>134</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E191" t="s">
+        <v>704</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/tools/autofill/data/stk.xlsx
+++ b/tools/autofill/data/stk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ClaimGames\tools\vn168\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giaminh/Downloads/ClaimGames/tools/autofill/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C17105-7BE1-4DB8-90D4-9887AFD6C8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700DD671-5E7B-BE4D-899F-F85BA027A02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{66964592-EB3B-45B3-852A-04B7DEFCF64A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="718">
   <si>
     <t>profile</t>
   </si>
@@ -384,9 +384,6 @@
     <t>VO THI NGOC THAO</t>
   </si>
   <si>
-    <t>TRAN THI NGA</t>
-  </si>
-  <si>
     <t>PHAM TRAN VUONG ANH</t>
   </si>
   <si>
@@ -405,9 +402,6 @@
     <t>NGUYEN THI HO</t>
   </si>
   <si>
-    <t>NGUYEN TAN DUONG</t>
-  </si>
-  <si>
     <t>NGUYEN LE THIEN VI</t>
   </si>
   <si>
@@ -417,1736 +411,1781 @@
     <t>NGUYEN ANH TU</t>
   </si>
   <si>
-    <t>KIEU DUC PHU</t>
-  </si>
-  <si>
     <t>HOANG QUOC DANG</t>
   </si>
   <si>
     <t>DIEP DANG KHOA</t>
   </si>
   <si>
-    <t>NGUYEN THUY HANG</t>
-  </si>
-  <si>
-    <t>DAO MY</t>
-  </si>
-  <si>
-    <t>0000092982193</t>
-  </si>
-  <si>
-    <t>1046154254616</t>
-  </si>
-  <si>
-    <t>1440397421584</t>
-  </si>
-  <si>
-    <t>3133986643265</t>
-  </si>
-  <si>
-    <t>3287987634695</t>
-  </si>
-  <si>
-    <t>4243487254362</t>
-  </si>
-  <si>
-    <t>4411238766462</t>
-  </si>
-  <si>
-    <t>4644281543697</t>
-  </si>
-  <si>
-    <t>5599679836498</t>
-  </si>
-  <si>
-    <t>5874478664662</t>
-  </si>
-  <si>
-    <t>0317068634665</t>
-  </si>
-  <si>
-    <t>0460242643198</t>
-  </si>
-  <si>
-    <t>0534630683649</t>
-  </si>
-  <si>
-    <t>0566793548158</t>
-  </si>
-  <si>
-    <t>0749481243830</t>
-  </si>
-  <si>
-    <t>0892664683942</t>
-  </si>
-  <si>
-    <t>1385864646665</t>
-  </si>
-  <si>
-    <t>7701115834692</t>
-  </si>
-  <si>
-    <t>9897943834992</t>
-  </si>
-  <si>
-    <t>12341111112293</t>
-  </si>
-  <si>
-    <t>12342222223911</t>
-  </si>
-  <si>
-    <t>12342222229672</t>
-  </si>
-  <si>
-    <t>12347777775850</t>
-  </si>
-  <si>
-    <t>12347777776069</t>
-  </si>
-  <si>
-    <t>12349999991393</t>
-  </si>
-  <si>
-    <t>12349999991750</t>
-  </si>
-  <si>
-    <t>23451111115682</t>
-  </si>
-  <si>
-    <t>23452222220637</t>
-  </si>
-  <si>
-    <t>23452222228099</t>
-  </si>
-  <si>
-    <t>12347777775970</t>
-  </si>
-  <si>
-    <t>12347777779602</t>
-  </si>
-  <si>
-    <t>12348888889279</t>
-  </si>
-  <si>
-    <t>12349999990598</t>
-  </si>
-  <si>
-    <t>12349999992986</t>
-  </si>
-  <si>
-    <t>23451111110846</t>
-  </si>
-  <si>
-    <t>23451111113434</t>
-  </si>
-  <si>
-    <t>23451111115784</t>
-  </si>
-  <si>
-    <t>23451111116497</t>
-  </si>
-  <si>
-    <t>23451111116974</t>
-  </si>
-  <si>
-    <t>23454444442497</t>
-  </si>
-  <si>
-    <t>23454444447615</t>
-  </si>
-  <si>
-    <t>34563333339156</t>
-  </si>
-  <si>
-    <t>45671111110160</t>
-  </si>
-  <si>
-    <t>45676666664104</t>
-  </si>
-  <si>
-    <t>23451111113692</t>
-  </si>
-  <si>
-    <t>23451111115427</t>
-  </si>
-  <si>
-    <t>23451111116731</t>
-  </si>
-  <si>
-    <t>23451111118684</t>
-  </si>
-  <si>
-    <t>23452222220789</t>
-  </si>
-  <si>
-    <t>0868917628</t>
-  </si>
-  <si>
-    <t>12341111112225</t>
-  </si>
-  <si>
-    <t>12342222220708</t>
-  </si>
-  <si>
-    <t>12342222226944</t>
-  </si>
-  <si>
-    <t>12346666665576</t>
-  </si>
-  <si>
-    <t>12346666667683</t>
-  </si>
-  <si>
-    <t>12347777770586</t>
-  </si>
-  <si>
-    <t>23451111110201</t>
-  </si>
-  <si>
-    <t>23451111110497</t>
-  </si>
-  <si>
-    <t>23451111112755</t>
-  </si>
-  <si>
-    <t>23453333335524</t>
-  </si>
-  <si>
-    <t>23454444446956</t>
-  </si>
-  <si>
-    <t>23457777773145</t>
-  </si>
-  <si>
-    <t>23457777775105</t>
-  </si>
-  <si>
-    <t>23458888882664</t>
-  </si>
-  <si>
-    <t>23458888882805</t>
-  </si>
-  <si>
-    <t>23458888886499</t>
-  </si>
-  <si>
-    <t>23458888887045</t>
-  </si>
-  <si>
-    <t>23458888887737</t>
-  </si>
-  <si>
-    <t>12341111116961</t>
-  </si>
-  <si>
-    <t>12347777771141</t>
-  </si>
-  <si>
-    <t>23451111113494</t>
-  </si>
-  <si>
-    <t>23451111115715</t>
-  </si>
-  <si>
-    <t>23451111117856</t>
-  </si>
-  <si>
-    <t>23451111118580</t>
-  </si>
-  <si>
-    <t>23453333339901</t>
-  </si>
-  <si>
-    <t>23454444441263</t>
-  </si>
-  <si>
-    <t>23454444442868</t>
-  </si>
-  <si>
-    <t>23454444445287</t>
-  </si>
-  <si>
-    <t>23457777771025</t>
-  </si>
-  <si>
-    <t>23457777774251</t>
-  </si>
-  <si>
-    <t>23457777779812</t>
-  </si>
-  <si>
-    <t>23458888883386</t>
-  </si>
-  <si>
-    <t>23458888887973</t>
-  </si>
-  <si>
-    <t>23458888889898</t>
-  </si>
-  <si>
-    <t>34561111114964</t>
-  </si>
-  <si>
-    <t>34561111119127</t>
-  </si>
-  <si>
-    <t>34562222221746</t>
-  </si>
-  <si>
-    <t>34562222223484</t>
-  </si>
-  <si>
-    <t>34562222225327</t>
-  </si>
-  <si>
-    <t>34562222225824</t>
-  </si>
-  <si>
-    <t>34563333331793</t>
-  </si>
-  <si>
-    <t>34563333334378</t>
-  </si>
-  <si>
-    <t>12348888884770</t>
-  </si>
-  <si>
-    <t>12348888887436</t>
-  </si>
-  <si>
-    <t>23451111112606</t>
-  </si>
-  <si>
-    <t>23451111118317</t>
-  </si>
-  <si>
-    <t>23451111119454</t>
-  </si>
-  <si>
-    <t>23452222224619</t>
-  </si>
-  <si>
-    <t>23452222225503</t>
-  </si>
-  <si>
-    <t>23452222227855</t>
-  </si>
-  <si>
-    <t>23452222228727</t>
-  </si>
-  <si>
-    <t>23453333330250</t>
-  </si>
-  <si>
-    <t>0911470051</t>
-  </si>
-  <si>
-    <t>12347777778914</t>
-  </si>
-  <si>
-    <t>12348888886702</t>
-  </si>
-  <si>
-    <t>12348888886722</t>
-  </si>
-  <si>
-    <t>12348888887862</t>
-  </si>
-  <si>
-    <t>23451111112554</t>
-  </si>
-  <si>
-    <t>23451111118347</t>
-  </si>
-  <si>
-    <t>23453333338366</t>
-  </si>
-  <si>
-    <t>23454444442959</t>
-  </si>
-  <si>
-    <t>23457777771746</t>
-  </si>
-  <si>
-    <t>23451111116218</t>
-  </si>
-  <si>
-    <t>23453333337044</t>
-  </si>
-  <si>
-    <t>23457777778893</t>
-  </si>
-  <si>
-    <t>23458888885480</t>
-  </si>
-  <si>
-    <t>34565555550585</t>
-  </si>
-  <si>
-    <t>34565555550751</t>
-  </si>
-  <si>
-    <t>34565555558895</t>
-  </si>
-  <si>
-    <t>45676666664157</t>
-  </si>
-  <si>
-    <t>0950378904561</t>
-  </si>
-  <si>
-    <t>12342222229495</t>
-  </si>
-  <si>
-    <t>12343333339260</t>
-  </si>
-  <si>
-    <t>12349999994239</t>
-  </si>
-  <si>
-    <t>23451111110452</t>
-  </si>
-  <si>
-    <t>23451111110906</t>
-  </si>
-  <si>
-    <t>23451111110986</t>
-  </si>
-  <si>
-    <t>23451111113608</t>
-  </si>
-  <si>
-    <t>23451111115724</t>
-  </si>
-  <si>
-    <t>23452222220683</t>
-  </si>
-  <si>
-    <t>23452222221562</t>
-  </si>
-  <si>
-    <t>0847511202</t>
-  </si>
-  <si>
-    <t>12343333330957</t>
-  </si>
-  <si>
-    <t>12347777771433</t>
-  </si>
-  <si>
-    <t>12348888887416</t>
-  </si>
-  <si>
-    <t>23451111116705</t>
-  </si>
-  <si>
-    <t>23452222225643</t>
-  </si>
-  <si>
-    <t>23453333334136</t>
-  </si>
-  <si>
-    <t>23453333339277</t>
-  </si>
-  <si>
-    <t>23454444441262</t>
-  </si>
-  <si>
-    <t>23454444441265</t>
-  </si>
-  <si>
-    <t>12346666660686</t>
-  </si>
-  <si>
-    <t>12346666664800</t>
-  </si>
-  <si>
-    <t>23451111118925</t>
-  </si>
-  <si>
-    <t>23452222228628</t>
-  </si>
-  <si>
-    <t>23453333332637</t>
-  </si>
-  <si>
-    <t>23453333336897</t>
-  </si>
-  <si>
-    <t>23453333339348</t>
-  </si>
-  <si>
-    <t>23457777773931</t>
-  </si>
-  <si>
-    <t>23457777774637</t>
-  </si>
-  <si>
-    <t>23454444442475</t>
-  </si>
-  <si>
-    <t>23454444445767</t>
-  </si>
-  <si>
-    <t>23457777773893</t>
-  </si>
-  <si>
-    <t>23459999998351</t>
-  </si>
-  <si>
-    <t>34561111118814</t>
-  </si>
-  <si>
-    <t>34565555556544</t>
-  </si>
-  <si>
-    <t>56785555550091</t>
-  </si>
-  <si>
-    <t>0956935346995</t>
-  </si>
-  <si>
-    <t>12342222229436</t>
-  </si>
-  <si>
-    <t>12347777773819</t>
-  </si>
-  <si>
-    <t>12347777776513</t>
-  </si>
-  <si>
-    <t>12347777779236</t>
-  </si>
-  <si>
-    <t>12347777779559</t>
-  </si>
-  <si>
-    <t>12349999996957</t>
-  </si>
-  <si>
-    <t>23451111110504</t>
-  </si>
-  <si>
-    <t>23451111113989</t>
-  </si>
-  <si>
-    <t>23451111116800</t>
-  </si>
-  <si>
-    <t>23451111118130</t>
-  </si>
-  <si>
-    <t>23452222220976</t>
-  </si>
-  <si>
-    <t>23452222225061</t>
-  </si>
-  <si>
-    <t>12341111112775</t>
-  </si>
-  <si>
-    <t>12348888880851</t>
-  </si>
-  <si>
-    <t>12349999997744</t>
-  </si>
-  <si>
-    <t>23451111113429</t>
-  </si>
-  <si>
-    <t>23451111118612</t>
-  </si>
-  <si>
-    <t>23451111119461</t>
-  </si>
-  <si>
-    <t>23453333335084</t>
-  </si>
-  <si>
-    <t>23454444445455</t>
-  </si>
-  <si>
-    <t>23458888885787</t>
-  </si>
-  <si>
-    <t>23459999993930</t>
-  </si>
-  <si>
-    <t>23454444445893</t>
-  </si>
-  <si>
-    <t>23457777771817</t>
-  </si>
-  <si>
-    <t>23458888882722</t>
-  </si>
-  <si>
-    <t>34561111110076</t>
-  </si>
-  <si>
-    <t>34563333332489</t>
-  </si>
-  <si>
-    <t>34564444442983</t>
-  </si>
-  <si>
-    <t>34565555554266</t>
-  </si>
-  <si>
-    <t>34565555557762</t>
-  </si>
-  <si>
-    <t>34569999990237</t>
-  </si>
-  <si>
-    <t>34569999993448</t>
-  </si>
-  <si>
-    <t>847183813</t>
-  </si>
-  <si>
-    <t>144560249</t>
-  </si>
-  <si>
-    <t>251895360</t>
-  </si>
-  <si>
-    <t>254705774</t>
-  </si>
-  <si>
-    <t>608385161</t>
-  </si>
-  <si>
-    <t>554562956</t>
-  </si>
-  <si>
-    <t>280349044</t>
-  </si>
-  <si>
-    <t>601276055</t>
-  </si>
-  <si>
-    <t>294918195</t>
-  </si>
-  <si>
-    <t>854818240</t>
-  </si>
-  <si>
-    <t>299613540</t>
-  </si>
-  <si>
-    <t>114483130</t>
-  </si>
-  <si>
-    <t>588605926</t>
-  </si>
-  <si>
-    <t>653539459</t>
-  </si>
-  <si>
-    <t>150018957</t>
-  </si>
-  <si>
-    <t>737613663</t>
-  </si>
-  <si>
-    <t>764702898</t>
-  </si>
-  <si>
-    <t>286166721</t>
-  </si>
-  <si>
-    <t>535043057</t>
-  </si>
-  <si>
-    <t>436720448</t>
-  </si>
-  <si>
-    <t>434920649</t>
-  </si>
-  <si>
-    <t>230380445</t>
-  </si>
-  <si>
-    <t>865759847</t>
-  </si>
-  <si>
-    <t>600708068</t>
-  </si>
-  <si>
-    <t>276067633</t>
-  </si>
-  <si>
-    <t>653782480</t>
-  </si>
-  <si>
-    <t>442064105</t>
-  </si>
-  <si>
-    <t>171376349</t>
-  </si>
-  <si>
-    <t>762308068</t>
-  </si>
-  <si>
-    <t>605882051</t>
-  </si>
-  <si>
-    <t>150929002</t>
-  </si>
-  <si>
-    <t>555423270</t>
-  </si>
-  <si>
-    <t>597355866</t>
-  </si>
-  <si>
-    <t>203697744</t>
-  </si>
-  <si>
-    <t>817683045</t>
-  </si>
-  <si>
-    <t>166416206</t>
-  </si>
-  <si>
-    <t>790315465</t>
-  </si>
-  <si>
-    <t>470182012</t>
-  </si>
-  <si>
-    <t>552021844</t>
-  </si>
-  <si>
-    <t>601858781</t>
-  </si>
-  <si>
-    <t>260722363</t>
-  </si>
-  <si>
-    <t>933460113</t>
-  </si>
-  <si>
-    <t>663977353</t>
-  </si>
-  <si>
-    <t>200931225</t>
-  </si>
-  <si>
-    <t>939064235</t>
-  </si>
-  <si>
-    <t>460326010</t>
-  </si>
-  <si>
-    <t>653018017</t>
-  </si>
-  <si>
-    <t>830045461</t>
-  </si>
-  <si>
-    <t>993126976</t>
-  </si>
-  <si>
-    <t>524001152</t>
-  </si>
-  <si>
-    <t>506961046</t>
-  </si>
-  <si>
-    <t>206029086</t>
-  </si>
-  <si>
-    <t>502349910</t>
-  </si>
-  <si>
-    <t>193834522</t>
-  </si>
-  <si>
-    <t>641995313</t>
-  </si>
-  <si>
-    <t>890537625</t>
-  </si>
-  <si>
-    <t>399769927</t>
-  </si>
-  <si>
-    <t>361186150</t>
-  </si>
-  <si>
-    <t>270842988</t>
-  </si>
-  <si>
-    <t>940856654</t>
-  </si>
-  <si>
-    <t>137419700</t>
-  </si>
-  <si>
-    <t>636742166</t>
-  </si>
-  <si>
-    <t>247372600</t>
-  </si>
-  <si>
-    <t>526040172</t>
-  </si>
-  <si>
-    <t>750662783</t>
-  </si>
-  <si>
-    <t>414405744</t>
-  </si>
-  <si>
-    <t>502816692</t>
-  </si>
-  <si>
-    <t>502227486</t>
-  </si>
-  <si>
-    <t>466566223</t>
-  </si>
-  <si>
-    <t>906804333</t>
-  </si>
-  <si>
-    <t>172253686</t>
-  </si>
-  <si>
-    <t>764765529</t>
-  </si>
-  <si>
-    <t>832141088</t>
-  </si>
-  <si>
-    <t>850682069</t>
-  </si>
-  <si>
-    <t>854632145</t>
-  </si>
-  <si>
-    <t>157437206</t>
-  </si>
-  <si>
-    <t>752343378</t>
-  </si>
-  <si>
-    <t>168120808</t>
-  </si>
-  <si>
-    <t>599789160</t>
-  </si>
-  <si>
-    <t>265103342</t>
-  </si>
-  <si>
-    <t>269568124</t>
-  </si>
-  <si>
-    <t>262761356</t>
-  </si>
-  <si>
-    <t>616087790</t>
-  </si>
-  <si>
-    <t>323183521</t>
-  </si>
-  <si>
-    <t>941543096</t>
-  </si>
-  <si>
-    <t>384537672</t>
-  </si>
-  <si>
-    <t>342472612</t>
-  </si>
-  <si>
-    <t>190075444</t>
-  </si>
-  <si>
-    <t>616369148</t>
-  </si>
-  <si>
-    <t>167443115</t>
-  </si>
-  <si>
-    <t>984471236</t>
-  </si>
-  <si>
-    <t>624618486</t>
-  </si>
-  <si>
-    <t>817516049</t>
-  </si>
-  <si>
-    <t>588077302</t>
-  </si>
-  <si>
-    <t>430510198</t>
-  </si>
-  <si>
-    <t>990048127</t>
-  </si>
-  <si>
-    <t>171201446</t>
-  </si>
-  <si>
-    <t>763729089</t>
-  </si>
-  <si>
-    <t>976198060</t>
-  </si>
-  <si>
-    <t>413005566</t>
-  </si>
-  <si>
-    <t>889309110</t>
-  </si>
-  <si>
-    <t>207535590</t>
-  </si>
-  <si>
-    <t>156624701</t>
-  </si>
-  <si>
-    <t>472174056</t>
-  </si>
-  <si>
-    <t>151732436</t>
-  </si>
-  <si>
-    <t>718153430</t>
-  </si>
-  <si>
-    <t>442454633</t>
-  </si>
-  <si>
-    <t>787120066</t>
-  </si>
-  <si>
-    <t>979424414</t>
-  </si>
-  <si>
-    <t>780162891</t>
-  </si>
-  <si>
-    <t>483543994</t>
-  </si>
-  <si>
-    <t>979480425</t>
-  </si>
-  <si>
-    <t>964609166</t>
-  </si>
-  <si>
-    <t>633543603</t>
-  </si>
-  <si>
-    <t>761761539</t>
-  </si>
-  <si>
-    <t>496865242</t>
-  </si>
-  <si>
-    <t>694228404</t>
-  </si>
-  <si>
-    <t>924900960</t>
-  </si>
-  <si>
-    <t>609312996</t>
-  </si>
-  <si>
-    <t>835853451</t>
-  </si>
-  <si>
-    <t>422313676</t>
-  </si>
-  <si>
-    <t>301906889</t>
-  </si>
-  <si>
-    <t>226818546</t>
-  </si>
-  <si>
-    <t>552020872</t>
-  </si>
-  <si>
-    <t>849927220</t>
-  </si>
-  <si>
-    <t>122314698</t>
-  </si>
-  <si>
-    <t>374456509</t>
-  </si>
-  <si>
-    <t>546502274</t>
-  </si>
-  <si>
-    <t>646487560</t>
-  </si>
-  <si>
-    <t>508803336</t>
-  </si>
-  <si>
-    <t>920770301</t>
-  </si>
-  <si>
-    <t>581263144</t>
-  </si>
-  <si>
-    <t>704802870</t>
-  </si>
-  <si>
-    <t>401913386</t>
-  </si>
-  <si>
-    <t>972799016</t>
-  </si>
-  <si>
-    <t>243486092</t>
-  </si>
-  <si>
-    <t>397309073</t>
-  </si>
-  <si>
-    <t>823233174</t>
-  </si>
-  <si>
-    <t>544698117</t>
-  </si>
-  <si>
-    <t>431038907</t>
-  </si>
-  <si>
-    <t>292849299</t>
-  </si>
-  <si>
-    <t>593111069</t>
-  </si>
-  <si>
-    <t>205524322</t>
-  </si>
-  <si>
-    <t>643665067</t>
-  </si>
-  <si>
-    <t>457394864</t>
-  </si>
-  <si>
-    <t>140399490</t>
-  </si>
-  <si>
-    <t>658143285</t>
-  </si>
-  <si>
-    <t>271655921</t>
-  </si>
-  <si>
-    <t>487280163</t>
-  </si>
-  <si>
-    <t>240520776</t>
-  </si>
-  <si>
-    <t>962502983</t>
-  </si>
-  <si>
-    <t>453103222</t>
-  </si>
-  <si>
-    <t>143143253</t>
-  </si>
-  <si>
-    <t>744707531</t>
-  </si>
-  <si>
-    <t>794467945</t>
-  </si>
-  <si>
-    <t>700171998</t>
-  </si>
-  <si>
-    <t>755714392</t>
-  </si>
-  <si>
-    <t>284277021</t>
-  </si>
-  <si>
-    <t>281582136</t>
-  </si>
-  <si>
-    <t>263061936</t>
-  </si>
-  <si>
-    <t>571991052</t>
-  </si>
-  <si>
-    <t>882583955</t>
-  </si>
-  <si>
-    <t>579525084</t>
-  </si>
-  <si>
-    <t>996333186</t>
-  </si>
-  <si>
-    <t>124400257</t>
-  </si>
-  <si>
-    <t>272747479</t>
-  </si>
-  <si>
-    <t>336531780</t>
-  </si>
-  <si>
-    <t>982723166</t>
-  </si>
-  <si>
-    <t>314056234</t>
-  </si>
-  <si>
-    <t>168032475</t>
-  </si>
-  <si>
-    <t>204332627</t>
-  </si>
-  <si>
-    <t>132255448</t>
-  </si>
-  <si>
-    <t>868839114</t>
-  </si>
-  <si>
-    <t>986106343</t>
-  </si>
-  <si>
-    <t>259897960</t>
-  </si>
-  <si>
-    <t>187114333</t>
-  </si>
-  <si>
-    <t>389972090</t>
-  </si>
-  <si>
-    <t>588287311</t>
-  </si>
-  <si>
-    <t>491334792</t>
-  </si>
-  <si>
-    <t>914322190</t>
-  </si>
-  <si>
-    <t>448170142</t>
-  </si>
-  <si>
-    <t>238130293</t>
-  </si>
-  <si>
-    <t>818123589</t>
-  </si>
-  <si>
-    <t>647596344</t>
-  </si>
-  <si>
-    <t>243384879</t>
-  </si>
-  <si>
-    <t>321369674</t>
-  </si>
-  <si>
-    <t>460500526</t>
-  </si>
-  <si>
-    <t>969102781</t>
-  </si>
-  <si>
-    <t>978454691</t>
-  </si>
-  <si>
-    <t>956911495</t>
-  </si>
-  <si>
-    <t>userTWXgD@gmail.com</t>
-  </si>
-  <si>
-    <t>userbZqKN@gmail.com</t>
-  </si>
-  <si>
-    <t>useri0wnN@gmail.com</t>
-  </si>
-  <si>
-    <t>userkkjUy@gmail.com</t>
-  </si>
-  <si>
-    <t>userBOZIJ@gmail.com</t>
-  </si>
-  <si>
-    <t>usercgvk0@gmail.com</t>
-  </si>
-  <si>
-    <t>userR9JxU@gmail.com</t>
-  </si>
-  <si>
-    <t>userRzqEp@gmail.com</t>
-  </si>
-  <si>
-    <t>useroKIKX@gmail.com</t>
-  </si>
-  <si>
-    <t>user0o40a@gmail.com</t>
-  </si>
-  <si>
-    <t>userj5bBN@gmail.com</t>
-  </si>
-  <si>
-    <t>userBlF9B@gmail.com</t>
-  </si>
-  <si>
-    <t>userBQH5X@gmail.com</t>
-  </si>
-  <si>
-    <t>userw7V2P@gmail.com</t>
-  </si>
-  <si>
-    <t>userug8o4@gmail.com</t>
-  </si>
-  <si>
-    <t>userxVRgN@gmail.com</t>
-  </si>
-  <si>
-    <t>userxYxP4@gmail.com</t>
-  </si>
-  <si>
-    <t>userszji7@gmail.com</t>
-  </si>
-  <si>
-    <t>user9hEPK@gmail.com</t>
-  </si>
-  <si>
-    <t>userKgeBv@gmail.com</t>
-  </si>
-  <si>
-    <t>userIlNs1@gmail.com</t>
-  </si>
-  <si>
-    <t>userwkbUI@gmail.com</t>
-  </si>
-  <si>
-    <t>user47WfP@gmail.com</t>
-  </si>
-  <si>
-    <t>user1Kxiw@gmail.com</t>
-  </si>
-  <si>
-    <t>userYzomT@gmail.com</t>
-  </si>
-  <si>
-    <t>user4G9Mp@gmail.com</t>
-  </si>
-  <si>
-    <t>userPhtqp@gmail.com</t>
-  </si>
-  <si>
-    <t>userKB0c9@gmail.com</t>
-  </si>
-  <si>
-    <t>userCxJ7k@gmail.com</t>
-  </si>
-  <si>
-    <t>userU5Tom@gmail.com</t>
-  </si>
-  <si>
-    <t>user8RPbM@gmail.com</t>
-  </si>
-  <si>
-    <t>userRdGBS@gmail.com</t>
-  </si>
-  <si>
-    <t>userKITjj@gmail.com</t>
-  </si>
-  <si>
-    <t>userd2Vh4@gmail.com</t>
-  </si>
-  <si>
-    <t>userpWvFv@gmail.com</t>
-  </si>
-  <si>
-    <t>usert17Xi@gmail.com</t>
-  </si>
-  <si>
-    <t>userHpLQ7@gmail.com</t>
-  </si>
-  <si>
-    <t>user2drUc@gmail.com</t>
-  </si>
-  <si>
-    <t>useroeWZp@gmail.com</t>
-  </si>
-  <si>
-    <t>usercAVXn@gmail.com</t>
-  </si>
-  <si>
-    <t>userCZFua@gmail.com</t>
-  </si>
-  <si>
-    <t>userMCLb6@gmail.com</t>
-  </si>
-  <si>
-    <t>usern4m6h@gmail.com</t>
-  </si>
-  <si>
-    <t>user4GibC@gmail.com</t>
-  </si>
-  <si>
-    <t>userdmge9@gmail.com</t>
-  </si>
-  <si>
-    <t>userzgC8B@gmail.com</t>
-  </si>
-  <si>
-    <t>userdXYED@gmail.com</t>
-  </si>
-  <si>
-    <t>userSgQVS@gmail.com</t>
-  </si>
-  <si>
-    <t>userI6LEI@gmail.com</t>
-  </si>
-  <si>
-    <t>userA9Mem@gmail.com</t>
-  </si>
-  <si>
-    <t>userhdvS7@gmail.com</t>
-  </si>
-  <si>
-    <t>usergOUoF@gmail.com</t>
-  </si>
-  <si>
-    <t>userqli2A@gmail.com</t>
-  </si>
-  <si>
-    <t>userfNbTW@gmail.com</t>
-  </si>
-  <si>
-    <t>userFT3Ud@gmail.com</t>
-  </si>
-  <si>
-    <t>usertXE0U@gmail.com</t>
-  </si>
-  <si>
-    <t>userUKYIY@gmail.com</t>
-  </si>
-  <si>
-    <t>userc1DBj@gmail.com</t>
-  </si>
-  <si>
-    <t>userTwJuo@gmail.com</t>
-  </si>
-  <si>
-    <t>userOo5tn@gmail.com</t>
-  </si>
-  <si>
-    <t>userOypS1@gmail.com</t>
-  </si>
-  <si>
-    <t>userMEWqU@gmail.com</t>
-  </si>
-  <si>
-    <t>usereipSv@gmail.com</t>
-  </si>
-  <si>
-    <t>userqdqXw@gmail.com</t>
-  </si>
-  <si>
-    <t>userAupEj@gmail.com</t>
-  </si>
-  <si>
-    <t>usertPY0b@gmail.com</t>
-  </si>
-  <si>
-    <t>userAdWjU@gmail.com</t>
-  </si>
-  <si>
-    <t>userhH0x5@gmail.com</t>
-  </si>
-  <si>
-    <t>userZECRk@gmail.com</t>
-  </si>
-  <si>
-    <t>user8Et2y@gmail.com</t>
-  </si>
-  <si>
-    <t>userwPbYm@gmail.com</t>
-  </si>
-  <si>
-    <t>user0fpyL@gmail.com</t>
-  </si>
-  <si>
-    <t>userFn9gU@gmail.com</t>
-  </si>
-  <si>
-    <t>userzAm1m@gmail.com</t>
-  </si>
-  <si>
-    <t>useroSa6h@gmail.com</t>
-  </si>
-  <si>
-    <t>userR2JgH@gmail.com</t>
-  </si>
-  <si>
-    <t>userBSxlK@gmail.com</t>
-  </si>
-  <si>
-    <t>user3KuyF@gmail.com</t>
-  </si>
-  <si>
-    <t>userX3CZr@gmail.com</t>
-  </si>
-  <si>
-    <t>user9S2kg@gmail.com</t>
-  </si>
-  <si>
-    <t>user7FLHl@gmail.com</t>
-  </si>
-  <si>
-    <t>userF8vwX@gmail.com</t>
-  </si>
-  <si>
-    <t>userYqAHw@gmail.com</t>
-  </si>
-  <si>
-    <t>userGQIE5@gmail.com</t>
-  </si>
-  <si>
-    <t>usercoxFj@gmail.com</t>
-  </si>
-  <si>
-    <t>userwsIxl@gmail.com</t>
-  </si>
-  <si>
-    <t>user1Iqbi@gmail.com</t>
-  </si>
-  <si>
-    <t>userpRXDw@gmail.com</t>
-  </si>
-  <si>
-    <t>userQm0UK@gmail.com</t>
-  </si>
-  <si>
-    <t>userVYSD2@gmail.com</t>
-  </si>
-  <si>
-    <t>user4Ttle@gmail.com</t>
-  </si>
-  <si>
-    <t>user5yITw@gmail.com</t>
-  </si>
-  <si>
-    <t>userrIios@gmail.com</t>
-  </si>
-  <si>
-    <t>userxBNCz@gmail.com</t>
-  </si>
-  <si>
-    <t>userVw6RK@gmail.com</t>
-  </si>
-  <si>
-    <t>userpyQNC@gmail.com</t>
-  </si>
-  <si>
-    <t>userr5u3q@gmail.com</t>
-  </si>
-  <si>
-    <t>userqbpF8@gmail.com</t>
-  </si>
-  <si>
-    <t>user1w4o3@gmail.com</t>
-  </si>
-  <si>
-    <t>userknXTU@gmail.com</t>
-  </si>
-  <si>
-    <t>user9vm3a@gmail.com</t>
-  </si>
-  <si>
-    <t>userf83Sj@gmail.com</t>
-  </si>
-  <si>
-    <t>useronpue@gmail.com</t>
-  </si>
-  <si>
-    <t>userVx5N8@gmail.com</t>
-  </si>
-  <si>
-    <t>userbnXdQ@gmail.com</t>
-  </si>
-  <si>
-    <t>user6olED@gmail.com</t>
-  </si>
-  <si>
-    <t>userPkad7@gmail.com</t>
-  </si>
-  <si>
-    <t>userSUQbW@gmail.com</t>
-  </si>
-  <si>
-    <t>userNJciy@gmail.com</t>
-  </si>
-  <si>
-    <t>userKd7LU@gmail.com</t>
-  </si>
-  <si>
-    <t>userTtq75@gmail.com</t>
-  </si>
-  <si>
-    <t>userYClRA@gmail.com</t>
-  </si>
-  <si>
-    <t>userNuhe3@gmail.com</t>
-  </si>
-  <si>
-    <t>userie0Db@gmail.com</t>
-  </si>
-  <si>
-    <t>userYmwzm@gmail.com</t>
-  </si>
-  <si>
-    <t>userTfRkS@gmail.com</t>
-  </si>
-  <si>
-    <t>user59Kvm@gmail.com</t>
-  </si>
-  <si>
-    <t>usergezJe@gmail.com</t>
-  </si>
-  <si>
-    <t>userc3ZfZ@gmail.com</t>
-  </si>
-  <si>
-    <t>userMhG1I@gmail.com</t>
-  </si>
-  <si>
-    <t>useresO1o@gmail.com</t>
-  </si>
-  <si>
-    <t>userLFPrK@gmail.com</t>
-  </si>
-  <si>
-    <t>userjU2II@gmail.com</t>
-  </si>
-  <si>
-    <t>usernvuYp@gmail.com</t>
-  </si>
-  <si>
-    <t>userVjRQz@gmail.com</t>
-  </si>
-  <si>
-    <t>useras4cm@gmail.com</t>
-  </si>
-  <si>
-    <t>user2VoU3@gmail.com</t>
-  </si>
-  <si>
-    <t>userblMhv@gmail.com</t>
-  </si>
-  <si>
-    <t>user4vZk5@gmail.com</t>
-  </si>
-  <si>
-    <t>userZGHhd@gmail.com</t>
-  </si>
-  <si>
-    <t>userJqVlT@gmail.com</t>
-  </si>
-  <si>
-    <t>userNQPrk@gmail.com</t>
-  </si>
-  <si>
-    <t>userNpaQm@gmail.com</t>
-  </si>
-  <si>
-    <t>userzCcSh@gmail.com</t>
-  </si>
-  <si>
-    <t>usertToTx@gmail.com</t>
-  </si>
-  <si>
-    <t>userYoGSq@gmail.com</t>
-  </si>
-  <si>
-    <t>usernGgpv@gmail.com</t>
-  </si>
-  <si>
-    <t>userHePsu@gmail.com</t>
-  </si>
-  <si>
-    <t>userdkKu4@gmail.com</t>
-  </si>
-  <si>
-    <t>userVX9HH@gmail.com</t>
-  </si>
-  <si>
-    <t>useru6T3d@gmail.com</t>
-  </si>
-  <si>
-    <t>userQUhYa@gmail.com</t>
-  </si>
-  <si>
-    <t>useryOQDC@gmail.com</t>
-  </si>
-  <si>
-    <t>usergm0Av@gmail.com</t>
-  </si>
-  <si>
-    <t>userBEX1g@gmail.com</t>
-  </si>
-  <si>
-    <t>user7jThy@gmail.com</t>
-  </si>
-  <si>
-    <t>userHwleA@gmail.com</t>
-  </si>
-  <si>
-    <t>userIq4gy@gmail.com</t>
-  </si>
-  <si>
-    <t>userVqNUn@gmail.com</t>
-  </si>
-  <si>
-    <t>userT6iPx@gmail.com</t>
-  </si>
-  <si>
-    <t>userWDj1C@gmail.com</t>
-  </si>
-  <si>
-    <t>userNm7D2@gmail.com</t>
-  </si>
-  <si>
-    <t>userwPRih@gmail.com</t>
-  </si>
-  <si>
-    <t>userrp3HU@gmail.com</t>
-  </si>
-  <si>
-    <t>usernqUR3@gmail.com</t>
-  </si>
-  <si>
-    <t>userwSic4@gmail.com</t>
-  </si>
-  <si>
-    <t>userQInfh@gmail.com</t>
-  </si>
-  <si>
-    <t>user07bAN@gmail.com</t>
-  </si>
-  <si>
-    <t>userIzts7@gmail.com</t>
-  </si>
-  <si>
-    <t>userFJAYr@gmail.com</t>
-  </si>
-  <si>
-    <t>usermyvTh@gmail.com</t>
-  </si>
-  <si>
-    <t>user0HfHF@gmail.com</t>
-  </si>
-  <si>
-    <t>userttgsW@gmail.com</t>
-  </si>
-  <si>
-    <t>uservqz9p@gmail.com</t>
-  </si>
-  <si>
-    <t>userqkhm8@gmail.com</t>
-  </si>
-  <si>
-    <t>userlZI2x@gmail.com</t>
-  </si>
-  <si>
-    <t>userCjzPQ@gmail.com</t>
-  </si>
-  <si>
-    <t>userAccH2@gmail.com</t>
-  </si>
-  <si>
-    <t>useryqoYD@gmail.com</t>
-  </si>
-  <si>
-    <t>userbUdnI@gmail.com</t>
-  </si>
-  <si>
-    <t>user9ucC4@gmail.com</t>
-  </si>
-  <si>
-    <t>userN3bS6@gmail.com</t>
-  </si>
-  <si>
-    <t>userFvEcj@gmail.com</t>
-  </si>
-  <si>
-    <t>user40DWi@gmail.com</t>
-  </si>
-  <si>
-    <t>user402Mf@gmail.com</t>
-  </si>
-  <si>
-    <t>userjAf1R@gmail.com</t>
-  </si>
-  <si>
-    <t>user8N1Ci@gmail.com</t>
-  </si>
-  <si>
-    <t>user0OB49@gmail.com</t>
-  </si>
-  <si>
-    <t>userD0ret@gmail.com</t>
-  </si>
-  <si>
-    <t>userMkfIn@gmail.com</t>
-  </si>
-  <si>
-    <t>userqfVAz@gmail.com</t>
-  </si>
-  <si>
-    <t>userz6rDj@gmail.com</t>
-  </si>
-  <si>
-    <t>userW3cXD@gmail.com</t>
-  </si>
-  <si>
-    <t>usert4XfA@gmail.com</t>
-  </si>
-  <si>
-    <t>user8mLn2@gmail.com</t>
-  </si>
-  <si>
-    <t>userZUzYu@gmail.com</t>
-  </si>
-  <si>
-    <t>userGrFNb@gmail.com</t>
-  </si>
-  <si>
-    <t>usermSazP@gmail.com</t>
-  </si>
-  <si>
-    <t>user8tklD@gmail.com</t>
-  </si>
-  <si>
-    <t>userV9psI@gmail.com</t>
+    <t>12349999991697</t>
+  </si>
+  <si>
+    <t>23451111113179</t>
+  </si>
+  <si>
+    <t>23451111113467</t>
+  </si>
+  <si>
+    <t>7984529866462</t>
+  </si>
+  <si>
+    <t>8844157284316</t>
+  </si>
+  <si>
+    <t>23451111115758</t>
+  </si>
+  <si>
+    <t>9729288364692</t>
+  </si>
+  <si>
+    <t>23451111116439</t>
+  </si>
+  <si>
+    <t>9801198364619</t>
+  </si>
+  <si>
+    <t>23451111116485</t>
+  </si>
+  <si>
+    <t>12343333338038</t>
+  </si>
+  <si>
+    <t>23451111115831</t>
+  </si>
+  <si>
+    <t>12346666662286</t>
+  </si>
+  <si>
+    <t>12348888884623</t>
+  </si>
+  <si>
+    <t>23451111116538</t>
+  </si>
+  <si>
+    <t>12349999993908</t>
+  </si>
+  <si>
+    <t>23451111119493</t>
+  </si>
+  <si>
+    <t>23452222226734</t>
+  </si>
+  <si>
+    <t>12349999996732</t>
+  </si>
+  <si>
+    <t>23452222229081</t>
+  </si>
+  <si>
+    <t>23457777774047</t>
+  </si>
+  <si>
+    <t>23453333339229</t>
+  </si>
+  <si>
+    <t>23457777774514</t>
+  </si>
+  <si>
+    <t>23457777774515</t>
+  </si>
+  <si>
+    <t>23454444441245</t>
+  </si>
+  <si>
+    <t>23457777772315</t>
+  </si>
+  <si>
+    <t>23457777774518</t>
+  </si>
+  <si>
+    <t>23457777774584</t>
+  </si>
+  <si>
+    <t>23457777773167</t>
+  </si>
+  <si>
+    <t>23457777774011</t>
+  </si>
+  <si>
+    <t>23453333339566</t>
+  </si>
+  <si>
+    <t>23454444442579</t>
+  </si>
+  <si>
+    <t>23452222225685</t>
+  </si>
+  <si>
+    <t>23452222228079</t>
+  </si>
+  <si>
+    <t>23452222228380</t>
+  </si>
+  <si>
+    <t>23454444445268</t>
+  </si>
+  <si>
+    <t>23453333330474</t>
+  </si>
+  <si>
+    <t>23453333332800</t>
+  </si>
+  <si>
+    <t>23454444449200</t>
+  </si>
+  <si>
+    <t>23453333336360</t>
+  </si>
+  <si>
+    <t>23457777770104</t>
+  </si>
+  <si>
+    <t>23457777770160</t>
+  </si>
+  <si>
+    <t>23457777770405</t>
+  </si>
+  <si>
+    <t>23454444440821</t>
+  </si>
+  <si>
+    <t>23454444446270</t>
+  </si>
+  <si>
+    <t>23454444448526</t>
+  </si>
+  <si>
+    <t>23457777771721</t>
+  </si>
+  <si>
+    <t>23457777772457</t>
+  </si>
+  <si>
+    <t>23454444442220</t>
+  </si>
+  <si>
+    <t>23457777774529</t>
+  </si>
+  <si>
+    <t>23457777774821</t>
+  </si>
+  <si>
+    <t>23454444443265</t>
+  </si>
+  <si>
+    <t>23454444443629</t>
+  </si>
+  <si>
+    <t>23457777775033</t>
+  </si>
+  <si>
+    <t>23457777775177</t>
+  </si>
+  <si>
+    <t>23454444445247</t>
+  </si>
+  <si>
+    <t>23457777775779</t>
+  </si>
+  <si>
+    <t>34561111113633</t>
+  </si>
+  <si>
+    <t>34562222229964</t>
+  </si>
+  <si>
+    <t>34561111114258</t>
+  </si>
+  <si>
+    <t>34563333332301</t>
+  </si>
+  <si>
+    <t>34562222224371</t>
+  </si>
+  <si>
+    <t>34562222227036</t>
+  </si>
+  <si>
+    <t>34563333335576</t>
+  </si>
+  <si>
+    <t>34564444440218</t>
+  </si>
+  <si>
+    <t>34564444441685</t>
+  </si>
+  <si>
+    <t>34564444441935</t>
+  </si>
+  <si>
+    <t>23454444447586</t>
+  </si>
+  <si>
+    <t>23454444449055</t>
+  </si>
+  <si>
+    <t>23457777773270</t>
+  </si>
+  <si>
+    <t>23457777773328</t>
+  </si>
+  <si>
+    <t>23457777778744</t>
+  </si>
+  <si>
+    <t>23457777774058</t>
+  </si>
+  <si>
+    <t>23457777774074</t>
+  </si>
+  <si>
+    <t>23459999990049</t>
+  </si>
+  <si>
+    <t>23459999993063</t>
+  </si>
+  <si>
+    <t>45676666665916</t>
+  </si>
+  <si>
+    <t>45676666668320</t>
+  </si>
+  <si>
+    <t>34568888881551</t>
+  </si>
+  <si>
+    <t>34568888881638</t>
+  </si>
+  <si>
+    <t>45676666668654</t>
+  </si>
+  <si>
+    <t>34568888882706</t>
+  </si>
+  <si>
+    <t>45676666669097</t>
+  </si>
+  <si>
+    <t>34568888883228</t>
+  </si>
+  <si>
+    <t>34568888883827</t>
+  </si>
+  <si>
+    <t>34568888886320</t>
+  </si>
+  <si>
+    <t>23459999996449</t>
+  </si>
+  <si>
+    <t>34569999990136</t>
+  </si>
+  <si>
+    <t>34569999991441</t>
+  </si>
+  <si>
+    <t>34569999994790</t>
+  </si>
+  <si>
+    <t>34569999998700</t>
+  </si>
+  <si>
+    <t>23459999996616</t>
+  </si>
+  <si>
+    <t>45676666660251</t>
+  </si>
+  <si>
+    <t>45676666663673</t>
+  </si>
+  <si>
+    <t>45676666664602</t>
+  </si>
+  <si>
+    <t>34561111116497</t>
+  </si>
+  <si>
+    <t>23457777771784</t>
+  </si>
+  <si>
+    <t>23457777774314</t>
+  </si>
+  <si>
+    <t>34562222221507</t>
+  </si>
+  <si>
+    <t>34562222225204</t>
+  </si>
+  <si>
+    <t>34563333334988</t>
+  </si>
+  <si>
+    <t>23458888885609</t>
+  </si>
+  <si>
+    <t>34564444440837</t>
+  </si>
+  <si>
+    <t>23458888887848</t>
+  </si>
+  <si>
+    <t>23459999990212</t>
+  </si>
+  <si>
+    <t>34564444441500</t>
+  </si>
+  <si>
+    <t>34561111118082</t>
+  </si>
+  <si>
+    <t>34562222220238</t>
+  </si>
+  <si>
+    <t>34562222226945</t>
+  </si>
+  <si>
+    <t>34563333332725</t>
+  </si>
+  <si>
+    <t>34564444441469</t>
+  </si>
+  <si>
+    <t>23457777779860</t>
+  </si>
+  <si>
+    <t>34564444442189</t>
+  </si>
+  <si>
+    <t>34561111114144</t>
+  </si>
+  <si>
+    <t>34561111114149</t>
+  </si>
+  <si>
+    <t>34561111117311</t>
+  </si>
+  <si>
+    <t>23457777770688</t>
+  </si>
+  <si>
+    <t>34561111110260</t>
+  </si>
+  <si>
+    <t>34561111110264</t>
+  </si>
+  <si>
+    <t>34561111112606</t>
+  </si>
+  <si>
+    <t>23457777770851</t>
+  </si>
+  <si>
+    <t>34561111118949</t>
+  </si>
+  <si>
+    <t>34561111119506</t>
+  </si>
+  <si>
+    <t>23457777771434</t>
+  </si>
+  <si>
+    <t>34562222220794</t>
+  </si>
+  <si>
+    <t>34562222220958</t>
+  </si>
+  <si>
+    <t>34562222223653</t>
+  </si>
+  <si>
+    <t>34562222226126</t>
+  </si>
+  <si>
+    <t>23457777774232</t>
+  </si>
+  <si>
+    <t>23457777779109</t>
+  </si>
+  <si>
+    <t>34562222226806</t>
+  </si>
+  <si>
+    <t>23458888881893</t>
+  </si>
+  <si>
+    <t>34562222226895</t>
+  </si>
+  <si>
+    <t>23458888884987</t>
+  </si>
+  <si>
+    <t>23459999994650</t>
+  </si>
+  <si>
+    <t>23459999995652</t>
+  </si>
+  <si>
+    <t>23457777775550</t>
+  </si>
+  <si>
+    <t>23457777779292</t>
+  </si>
+  <si>
+    <t>34561111117524</t>
+  </si>
+  <si>
+    <t>34561111119605</t>
+  </si>
+  <si>
+    <t>23458888886198</t>
+  </si>
+  <si>
+    <t>34562222224250</t>
+  </si>
+  <si>
+    <t>34563333331920</t>
+  </si>
+  <si>
+    <t>34563333337853</t>
+  </si>
+  <si>
+    <t>34563333339386</t>
+  </si>
+  <si>
+    <t>34564444441692</t>
+  </si>
+  <si>
+    <t>34565555552703</t>
+  </si>
+  <si>
+    <t>34562222225575</t>
+  </si>
+  <si>
+    <t>34563333330517</t>
+  </si>
+  <si>
+    <t>34563333336527</t>
+  </si>
+  <si>
+    <t>34563333339261</t>
+  </si>
+  <si>
+    <t>34564444441492</t>
+  </si>
+  <si>
+    <t>34565555552854</t>
+  </si>
+  <si>
+    <t>34565555557458</t>
+  </si>
+  <si>
+    <t>34565555557876</t>
+  </si>
+  <si>
+    <t>34565555551409</t>
+  </si>
+  <si>
+    <t>23453333336097</t>
+  </si>
+  <si>
+    <t>23454444442019</t>
+  </si>
+  <si>
+    <t>34565555558215</t>
+  </si>
+  <si>
+    <t>34565555558594</t>
+  </si>
+  <si>
+    <t>23454444446488</t>
+  </si>
+  <si>
+    <t>34568888884257</t>
+  </si>
+  <si>
+    <t>23454444449474</t>
+  </si>
+  <si>
+    <t>23457777770435</t>
+  </si>
+  <si>
+    <t>23457777770481</t>
+  </si>
+  <si>
+    <t>23457777773961</t>
+  </si>
+  <si>
+    <t>23457777776590</t>
+  </si>
+  <si>
+    <t>23457777770623</t>
+  </si>
+  <si>
+    <t>23457777770958</t>
+  </si>
+  <si>
+    <t>23457777779094</t>
+  </si>
+  <si>
+    <t>23457777779324</t>
+  </si>
+  <si>
+    <t>23458888880401</t>
+  </si>
+  <si>
+    <t>23457777771769</t>
+  </si>
+  <si>
+    <t>23458888884085</t>
+  </si>
+  <si>
+    <t>23459999990481</t>
+  </si>
+  <si>
+    <t>23459999997375</t>
+  </si>
+  <si>
+    <t>34561111110265</t>
+  </si>
+  <si>
+    <t>34561111113643</t>
+  </si>
+  <si>
+    <t>45673333330956</t>
+  </si>
+  <si>
+    <t>45673333335621</t>
+  </si>
+  <si>
+    <t>34565555550865</t>
+  </si>
+  <si>
+    <t>45676666661453</t>
+  </si>
+  <si>
+    <t>45676666664723</t>
+  </si>
+  <si>
+    <t>34565555551537</t>
+  </si>
+  <si>
+    <t>34568888882149</t>
+  </si>
+  <si>
+    <t>45676666665664</t>
+  </si>
+  <si>
+    <t>34568888883144</t>
+  </si>
+  <si>
+    <t>34568888886431</t>
+  </si>
+  <si>
+    <t>34568888886525</t>
+  </si>
+  <si>
+    <t>45676666667584</t>
+  </si>
+  <si>
+    <t>45676666668061</t>
+  </si>
+  <si>
+    <t>45676666668351</t>
+  </si>
+  <si>
+    <t>34568888887496</t>
+  </si>
+  <si>
+    <t>34569999995623</t>
+  </si>
+  <si>
+    <t>67898888886491</t>
+  </si>
+  <si>
+    <t>34569999997299</t>
+  </si>
+  <si>
+    <t>323423487</t>
+  </si>
+  <si>
+    <t>213787407</t>
+  </si>
+  <si>
+    <t>296453928</t>
+  </si>
+  <si>
+    <t>622725744</t>
+  </si>
+  <si>
+    <t>738824740</t>
+  </si>
+  <si>
+    <t>670170269</t>
+  </si>
+  <si>
+    <t>804024150</t>
+  </si>
+  <si>
+    <t>255567841</t>
+  </si>
+  <si>
+    <t>608681225</t>
+  </si>
+  <si>
+    <t>971004442</t>
+  </si>
+  <si>
+    <t>332618993</t>
+  </si>
+  <si>
+    <t>644323726</t>
+  </si>
+  <si>
+    <t>197735906</t>
+  </si>
+  <si>
+    <t>334713360</t>
+  </si>
+  <si>
+    <t>266374203</t>
+  </si>
+  <si>
+    <t>134838312</t>
+  </si>
+  <si>
+    <t>375916516</t>
+  </si>
+  <si>
+    <t>681836084</t>
+  </si>
+  <si>
+    <t>789215830</t>
+  </si>
+  <si>
+    <t>578114421</t>
+  </si>
+  <si>
+    <t>469259734</t>
+  </si>
+  <si>
+    <t>546024777</t>
+  </si>
+  <si>
+    <t>575504091</t>
+  </si>
+  <si>
+    <t>556519869</t>
+  </si>
+  <si>
+    <t>707074136</t>
+  </si>
+  <si>
+    <t>816773084</t>
+  </si>
+  <si>
+    <t>782112937</t>
+  </si>
+  <si>
+    <t>668804658</t>
+  </si>
+  <si>
+    <t>253016536</t>
+  </si>
+  <si>
+    <t>399474927</t>
+  </si>
+  <si>
+    <t>479509601</t>
+  </si>
+  <si>
+    <t>444173530</t>
+  </si>
+  <si>
+    <t>234526717</t>
+  </si>
+  <si>
+    <t>269847457</t>
+  </si>
+  <si>
+    <t>207804535</t>
+  </si>
+  <si>
+    <t>686390486</t>
+  </si>
+  <si>
+    <t>956510726</t>
+  </si>
+  <si>
+    <t>376141640</t>
+  </si>
+  <si>
+    <t>553159075</t>
+  </si>
+  <si>
+    <t>772632218</t>
+  </si>
+  <si>
+    <t>777973893</t>
+  </si>
+  <si>
+    <t>917253557</t>
+  </si>
+  <si>
+    <t>827003955</t>
+  </si>
+  <si>
+    <t>525100037</t>
+  </si>
+  <si>
+    <t>878529173</t>
+  </si>
+  <si>
+    <t>910901889</t>
+  </si>
+  <si>
+    <t>901892970</t>
+  </si>
+  <si>
+    <t>751350449</t>
+  </si>
+  <si>
+    <t>766862643</t>
+  </si>
+  <si>
+    <t>517050234</t>
+  </si>
+  <si>
+    <t>260336954</t>
+  </si>
+  <si>
+    <t>396438004</t>
+  </si>
+  <si>
+    <t>462792001</t>
+  </si>
+  <si>
+    <t>945290779</t>
+  </si>
+  <si>
+    <t>111280590</t>
+  </si>
+  <si>
+    <t>663634851</t>
+  </si>
+  <si>
+    <t>881199510</t>
+  </si>
+  <si>
+    <t>943545345</t>
+  </si>
+  <si>
+    <t>933419301</t>
+  </si>
+  <si>
+    <t>342552006</t>
+  </si>
+  <si>
+    <t>233027805</t>
+  </si>
+  <si>
+    <t>990944569</t>
+  </si>
+  <si>
+    <t>927096636</t>
+  </si>
+  <si>
+    <t>198554608</t>
+  </si>
+  <si>
+    <t>747780299</t>
+  </si>
+  <si>
+    <t>512974615</t>
+  </si>
+  <si>
+    <t>185328862</t>
+  </si>
+  <si>
+    <t>328592377</t>
+  </si>
+  <si>
+    <t>560373691</t>
+  </si>
+  <si>
+    <t>414206282</t>
+  </si>
+  <si>
+    <t>818146497</t>
+  </si>
+  <si>
+    <t>594760558</t>
+  </si>
+  <si>
+    <t>672470250</t>
+  </si>
+  <si>
+    <t>555451920</t>
+  </si>
+  <si>
+    <t>456764298</t>
+  </si>
+  <si>
+    <t>805824731</t>
+  </si>
+  <si>
+    <t>205215197</t>
+  </si>
+  <si>
+    <t>608681994</t>
+  </si>
+  <si>
+    <t>785613810</t>
+  </si>
+  <si>
+    <t>124805232</t>
+  </si>
+  <si>
+    <t>218092427</t>
+  </si>
+  <si>
+    <t>242129741</t>
+  </si>
+  <si>
+    <t>522658514</t>
+  </si>
+  <si>
+    <t>172001781</t>
+  </si>
+  <si>
+    <t>597869022</t>
+  </si>
+  <si>
+    <t>334504150</t>
+  </si>
+  <si>
+    <t>367636820</t>
+  </si>
+  <si>
+    <t>211020248</t>
+  </si>
+  <si>
+    <t>703105948</t>
+  </si>
+  <si>
+    <t>303223108</t>
+  </si>
+  <si>
+    <t>624742714</t>
+  </si>
+  <si>
+    <t>647192250</t>
+  </si>
+  <si>
+    <t>372760668</t>
+  </si>
+  <si>
+    <t>657180478</t>
+  </si>
+  <si>
+    <t>555793730</t>
+  </si>
+  <si>
+    <t>822902370</t>
+  </si>
+  <si>
+    <t>916274130</t>
+  </si>
+  <si>
+    <t>491862305</t>
+  </si>
+  <si>
+    <t>199168716</t>
+  </si>
+  <si>
+    <t>415931226</t>
+  </si>
+  <si>
+    <t>833287808</t>
+  </si>
+  <si>
+    <t>934421204</t>
+  </si>
+  <si>
+    <t>424574236</t>
+  </si>
+  <si>
+    <t>719311432</t>
+  </si>
+  <si>
+    <t>295052685</t>
+  </si>
+  <si>
+    <t>738473373</t>
+  </si>
+  <si>
+    <t>370323106</t>
+  </si>
+  <si>
+    <t>602407474</t>
+  </si>
+  <si>
+    <t>229465464</t>
+  </si>
+  <si>
+    <t>497374807</t>
+  </si>
+  <si>
+    <t>463770096</t>
+  </si>
+  <si>
+    <t>737711264</t>
+  </si>
+  <si>
+    <t>342385886</t>
+  </si>
+  <si>
+    <t>667815569</t>
+  </si>
+  <si>
+    <t>218881326</t>
+  </si>
+  <si>
+    <t>512822190</t>
+  </si>
+  <si>
+    <t>697497471</t>
+  </si>
+  <si>
+    <t>472796042</t>
+  </si>
+  <si>
+    <t>964877549</t>
+  </si>
+  <si>
+    <t>781049626</t>
+  </si>
+  <si>
+    <t>623060823</t>
+  </si>
+  <si>
+    <t>615479640</t>
+  </si>
+  <si>
+    <t>618513192</t>
+  </si>
+  <si>
+    <t>378714499</t>
+  </si>
+  <si>
+    <t>901698781</t>
+  </si>
+  <si>
+    <t>554239075</t>
+  </si>
+  <si>
+    <t>335106319</t>
+  </si>
+  <si>
+    <t>535332977</t>
+  </si>
+  <si>
+    <t>596537950</t>
+  </si>
+  <si>
+    <t>318811389</t>
+  </si>
+  <si>
+    <t>879817718</t>
+  </si>
+  <si>
+    <t>719264938</t>
+  </si>
+  <si>
+    <t>672775962</t>
+  </si>
+  <si>
+    <t>367817649</t>
+  </si>
+  <si>
+    <t>278237608</t>
+  </si>
+  <si>
+    <t>682109757</t>
+  </si>
+  <si>
+    <t>149840956</t>
+  </si>
+  <si>
+    <t>883442808</t>
+  </si>
+  <si>
+    <t>909693187</t>
+  </si>
+  <si>
+    <t>908968284</t>
+  </si>
+  <si>
+    <t>555066809</t>
+  </si>
+  <si>
+    <t>703644674</t>
+  </si>
+  <si>
+    <t>154653184</t>
+  </si>
+  <si>
+    <t>366900362</t>
+  </si>
+  <si>
+    <t>908365831</t>
+  </si>
+  <si>
+    <t>542481201</t>
+  </si>
+  <si>
+    <t>541450074</t>
+  </si>
+  <si>
+    <t>191618728</t>
+  </si>
+  <si>
+    <t>972762575</t>
+  </si>
+  <si>
+    <t>348799724</t>
+  </si>
+  <si>
+    <t>537256200</t>
+  </si>
+  <si>
+    <t>378278068</t>
+  </si>
+  <si>
+    <t>500129775</t>
+  </si>
+  <si>
+    <t>687142107</t>
+  </si>
+  <si>
+    <t>757588136</t>
+  </si>
+  <si>
+    <t>234661111</t>
+  </si>
+  <si>
+    <t>909346315</t>
+  </si>
+  <si>
+    <t>839936029</t>
+  </si>
+  <si>
+    <t>757156741</t>
+  </si>
+  <si>
+    <t>913431434</t>
+  </si>
+  <si>
+    <t>363364627</t>
+  </si>
+  <si>
+    <t>114776996</t>
+  </si>
+  <si>
+    <t>138556717</t>
+  </si>
+  <si>
+    <t>269784993</t>
+  </si>
+  <si>
+    <t>456098446</t>
+  </si>
+  <si>
+    <t>255269232</t>
+  </si>
+  <si>
+    <t>686895598</t>
+  </si>
+  <si>
+    <t>803134808</t>
+  </si>
+  <si>
+    <t>682551273</t>
+  </si>
+  <si>
+    <t>480676805</t>
+  </si>
+  <si>
+    <t>973269164</t>
+  </si>
+  <si>
+    <t>962134277</t>
+  </si>
+  <si>
+    <t>199482927</t>
+  </si>
+  <si>
+    <t>364455596</t>
+  </si>
+  <si>
+    <t>291291426</t>
+  </si>
+  <si>
+    <t>168325167</t>
+  </si>
+  <si>
+    <t>255685469</t>
+  </si>
+  <si>
+    <t>540368150</t>
+  </si>
+  <si>
+    <t>405708200</t>
+  </si>
+  <si>
+    <t>511967644</t>
+  </si>
+  <si>
+    <t>757219096</t>
+  </si>
+  <si>
+    <t>559238305</t>
+  </si>
+  <si>
+    <t>423954304</t>
+  </si>
+  <si>
+    <t>378749090</t>
+  </si>
+  <si>
+    <t>142122918</t>
+  </si>
+  <si>
+    <t>355680748</t>
+  </si>
+  <si>
+    <t>902958000</t>
+  </si>
+  <si>
+    <t>338362065</t>
+  </si>
+  <si>
+    <t>834110046</t>
+  </si>
+  <si>
+    <t>669037141</t>
+  </si>
+  <si>
+    <t>936056694</t>
+  </si>
+  <si>
+    <t>220030228</t>
+  </si>
+  <si>
+    <t>630641391</t>
+  </si>
+  <si>
+    <t>848773605</t>
+  </si>
+  <si>
+    <t>519909747</t>
+  </si>
+  <si>
+    <t>522682255</t>
+  </si>
+  <si>
+    <t>userS3IqioXthG@gmail.com</t>
+  </si>
+  <si>
+    <t>userWNlCdwG5m4@gmail.com</t>
+  </si>
+  <si>
+    <t>userHn8IrqIjZk@gmail.com</t>
+  </si>
+  <si>
+    <t>userqRc2V6f4Lb@gmail.com</t>
+  </si>
+  <si>
+    <t>usermjo1axZS7O@gmail.com</t>
+  </si>
+  <si>
+    <t>user1khYKpnLw5@gmail.com</t>
+  </si>
+  <si>
+    <t>userLuWVUi6JMG@gmail.com</t>
+  </si>
+  <si>
+    <t>userKj9tPdpez7@gmail.com</t>
+  </si>
+  <si>
+    <t>userISe41j8zdp@gmail.com</t>
+  </si>
+  <si>
+    <t>userSk5rFZUPZK@gmail.com</t>
+  </si>
+  <si>
+    <t>usereP2fBdFUvU@gmail.com</t>
+  </si>
+  <si>
+    <t>userbyxdzcoR2j@gmail.com</t>
+  </si>
+  <si>
+    <t>userjUD4rhePyt@gmail.com</t>
+  </si>
+  <si>
+    <t>userMCqbhjrg6d@gmail.com</t>
+  </si>
+  <si>
+    <t>userdAQnfjGAM3@gmail.com</t>
+  </si>
+  <si>
+    <t>userq29PlDfSrb@gmail.com</t>
+  </si>
+  <si>
+    <t>userXA6KZUtmez@gmail.com</t>
+  </si>
+  <si>
+    <t>userzIh7i8hFlh@gmail.com</t>
+  </si>
+  <si>
+    <t>userAwLGnLmku7@gmail.com</t>
+  </si>
+  <si>
+    <t>userAclogJcAHs@gmail.com</t>
+  </si>
+  <si>
+    <t>userf33B7P7OHk@gmail.com</t>
+  </si>
+  <si>
+    <t>uservwAiUvolRQ@gmail.com</t>
+  </si>
+  <si>
+    <t>userdtSNYBq0G6@gmail.com</t>
+  </si>
+  <si>
+    <t>userHcrNLyJXf1@gmail.com</t>
+  </si>
+  <si>
+    <t>user7jYc971d4T@gmail.com</t>
+  </si>
+  <si>
+    <t>userAJWLc7V6Zt@gmail.com</t>
+  </si>
+  <si>
+    <t>userDXib1HYqgu@gmail.com</t>
+  </si>
+  <si>
+    <t>userUQpIMSPt6Q@gmail.com</t>
+  </si>
+  <si>
+    <t>userSADOOWQGHl@gmail.com</t>
+  </si>
+  <si>
+    <t>userFICfvhW2l4@gmail.com</t>
+  </si>
+  <si>
+    <t>userw7fJKNrMcK@gmail.com</t>
+  </si>
+  <si>
+    <t>user9YPM4m6a1t@gmail.com</t>
+  </si>
+  <si>
+    <t>userdZpSfWif4q@gmail.com</t>
+  </si>
+  <si>
+    <t>userd0VKi5MKs2@gmail.com</t>
+  </si>
+  <si>
+    <t>userowCG9z0aye@gmail.com</t>
+  </si>
+  <si>
+    <t>userp9Q5ClHKX9@gmail.com</t>
+  </si>
+  <si>
+    <t>user4ug3z3R6Cl@gmail.com</t>
+  </si>
+  <si>
+    <t>userYn7D2av8CE@gmail.com</t>
+  </si>
+  <si>
+    <t>userVOkhoN0gbV@gmail.com</t>
+  </si>
+  <si>
+    <t>usermn0NVe6tUf@gmail.com</t>
+  </si>
+  <si>
+    <t>usero7wxhqeQS1@gmail.com</t>
+  </si>
+  <si>
+    <t>usergq8nYkyCnZ@gmail.com</t>
+  </si>
+  <si>
+    <t>userM5qA1vhity@gmail.com</t>
+  </si>
+  <si>
+    <t>userB6IPH5L8e9@gmail.com</t>
+  </si>
+  <si>
+    <t>userEqHrXeUezl@gmail.com</t>
+  </si>
+  <si>
+    <t>uservc7ZbPVsfb@gmail.com</t>
+  </si>
+  <si>
+    <t>userKfMAFFbdUf@gmail.com</t>
+  </si>
+  <si>
+    <t>userOJWWYKSsok@gmail.com</t>
+  </si>
+  <si>
+    <t>userK7txyurYYW@gmail.com</t>
+  </si>
+  <si>
+    <t>userdyKyU2SePt@gmail.com</t>
+  </si>
+  <si>
+    <t>userSxy12NnQUF@gmail.com</t>
+  </si>
+  <si>
+    <t>userB63onmZh03@gmail.com</t>
+  </si>
+  <si>
+    <t>userEA03QszkEx@gmail.com</t>
+  </si>
+  <si>
+    <t>userKiZiyC2nAt@gmail.com</t>
+  </si>
+  <si>
+    <t>userKRvexW5bv2@gmail.com</t>
+  </si>
+  <si>
+    <t>useru33j1tMQrC@gmail.com</t>
+  </si>
+  <si>
+    <t>userYerr7gMBgd@gmail.com</t>
+  </si>
+  <si>
+    <t>userGcLqaHgRDP@gmail.com</t>
+  </si>
+  <si>
+    <t>userUgDwT8pCTf@gmail.com</t>
+  </si>
+  <si>
+    <t>userkUbHIXLArQ@gmail.com</t>
+  </si>
+  <si>
+    <t>userxvt0Ijjr1S@gmail.com</t>
+  </si>
+  <si>
+    <t>user2f5yvwcWAP@gmail.com</t>
+  </si>
+  <si>
+    <t>usertnviXSm4tl@gmail.com</t>
+  </si>
+  <si>
+    <t>useri2hqrGCHto@gmail.com</t>
+  </si>
+  <si>
+    <t>uservN3u6adbS2@gmail.com</t>
+  </si>
+  <si>
+    <t>userCGfI1tsxBR@gmail.com</t>
+  </si>
+  <si>
+    <t>userPai3L9ANvs@gmail.com</t>
+  </si>
+  <si>
+    <t>usery2IduWzm9v@gmail.com</t>
+  </si>
+  <si>
+    <t>userQjVnvjeiqE@gmail.com</t>
+  </si>
+  <si>
+    <t>userjAWVLtQcbN@gmail.com</t>
+  </si>
+  <si>
+    <t>user5llNmtGhvw@gmail.com</t>
+  </si>
+  <si>
+    <t>userizcSsIdxzE@gmail.com</t>
+  </si>
+  <si>
+    <t>userQkAmIea43o@gmail.com</t>
+  </si>
+  <si>
+    <t>userZq3vjDAIlg@gmail.com</t>
+  </si>
+  <si>
+    <t>user0JbMNUu37O@gmail.com</t>
+  </si>
+  <si>
+    <t>userzOnSvIIekk@gmail.com</t>
+  </si>
+  <si>
+    <t>userOY346jdO6n@gmail.com</t>
+  </si>
+  <si>
+    <t>userugRUX7QgaI@gmail.com</t>
+  </si>
+  <si>
+    <t>userHxw21d5W3b@gmail.com</t>
+  </si>
+  <si>
+    <t>userS9Gjea33g3@gmail.com</t>
+  </si>
+  <si>
+    <t>userUEdZIANQD7@gmail.com</t>
+  </si>
+  <si>
+    <t>userSh9Sben5q5@gmail.com</t>
+  </si>
+  <si>
+    <t>userd6Xj9MFz6Y@gmail.com</t>
+  </si>
+  <si>
+    <t>userzGclrXWIoq@gmail.com</t>
+  </si>
+  <si>
+    <t>userb4FBacOeRG@gmail.com</t>
+  </si>
+  <si>
+    <t>usernQd2PbOzCB@gmail.com</t>
+  </si>
+  <si>
+    <t>userMY8RNweP1F@gmail.com</t>
+  </si>
+  <si>
+    <t>userNwggz8rV0K@gmail.com</t>
+  </si>
+  <si>
+    <t>user194k5rHaHL@gmail.com</t>
+  </si>
+  <si>
+    <t>userHwDFMWtIYX@gmail.com</t>
+  </si>
+  <si>
+    <t>userfKavJklnPn@gmail.com</t>
+  </si>
+  <si>
+    <t>usercXfs4wnD2u@gmail.com</t>
+  </si>
+  <si>
+    <t>userLLg21kXHJA@gmail.com</t>
+  </si>
+  <si>
+    <t>userukO2sQwa4N@gmail.com</t>
+  </si>
+  <si>
+    <t>userEHaCH3HB1w@gmail.com</t>
+  </si>
+  <si>
+    <t>user346gmB3nYh@gmail.com</t>
+  </si>
+  <si>
+    <t>userAGCJM7Bh7F@gmail.com</t>
+  </si>
+  <si>
+    <t>userjBsgwm2lcK@gmail.com</t>
+  </si>
+  <si>
+    <t>useriDofL7BGKP@gmail.com</t>
+  </si>
+  <si>
+    <t>userIpr74mtwMh@gmail.com</t>
+  </si>
+  <si>
+    <t>user6XAZii4DIf@gmail.com</t>
+  </si>
+  <si>
+    <t>userOupbxATKj7@gmail.com</t>
+  </si>
+  <si>
+    <t>userhD4BIasr6u@gmail.com</t>
+  </si>
+  <si>
+    <t>user6ayiOAqhqN@gmail.com</t>
+  </si>
+  <si>
+    <t>userS9OWQAJQTz@gmail.com</t>
+  </si>
+  <si>
+    <t>user6rkveRfSkb@gmail.com</t>
+  </si>
+  <si>
+    <t>userYtYVLZ0ntW@gmail.com</t>
+  </si>
+  <si>
+    <t>userBLc2L8SnyB@gmail.com</t>
+  </si>
+  <si>
+    <t>userLMF7uSCgDQ@gmail.com</t>
+  </si>
+  <si>
+    <t>userK0xsvzT7M7@gmail.com</t>
+  </si>
+  <si>
+    <t>user5VsSLMpPkT@gmail.com</t>
+  </si>
+  <si>
+    <t>userVJBYuhh30Z@gmail.com</t>
+  </si>
+  <si>
+    <t>userGomMRVaWAX@gmail.com</t>
+  </si>
+  <si>
+    <t>userQb5HBFzsUy@gmail.com</t>
+  </si>
+  <si>
+    <t>user2IPVpcq74r@gmail.com</t>
+  </si>
+  <si>
+    <t>usernIMuVanpkY@gmail.com</t>
+  </si>
+  <si>
+    <t>userVP5qHmVfxf@gmail.com</t>
+  </si>
+  <si>
+    <t>user2dXpX1icMT@gmail.com</t>
+  </si>
+  <si>
+    <t>userHrnTo5PaB1@gmail.com</t>
+  </si>
+  <si>
+    <t>userdgtBPMf6BW@gmail.com</t>
+  </si>
+  <si>
+    <t>userID9plgWvBF@gmail.com</t>
+  </si>
+  <si>
+    <t>userrrr0XhDmzy@gmail.com</t>
+  </si>
+  <si>
+    <t>userRfqkxwTgMl@gmail.com</t>
+  </si>
+  <si>
+    <t>userhbfOIDn7ye@gmail.com</t>
+  </si>
+  <si>
+    <t>userIpFRKlIprk@gmail.com</t>
+  </si>
+  <si>
+    <t>userSjYOucIAEu@gmail.com</t>
+  </si>
+  <si>
+    <t>userkmyJvprVQw@gmail.com</t>
+  </si>
+  <si>
+    <t>userp0kWbINPaV@gmail.com</t>
+  </si>
+  <si>
+    <t>userbuPye8l2vB@gmail.com</t>
+  </si>
+  <si>
+    <t>userTWTYzQDbK6@gmail.com</t>
+  </si>
+  <si>
+    <t>userxfOLfvXaBT@gmail.com</t>
+  </si>
+  <si>
+    <t>userQCV2cr6AMT@gmail.com</t>
+  </si>
+  <si>
+    <t>userrtRBvV3YGJ@gmail.com</t>
+  </si>
+  <si>
+    <t>userNvPjrbEQD2@gmail.com</t>
+  </si>
+  <si>
+    <t>userYNajiXTs2A@gmail.com</t>
+  </si>
+  <si>
+    <t>user1m9qrJ7lrv@gmail.com</t>
+  </si>
+  <si>
+    <t>userTEAAypMQW0@gmail.com</t>
+  </si>
+  <si>
+    <t>user3ShOy7PPgw@gmail.com</t>
+  </si>
+  <si>
+    <t>userQUxTFeGuT3@gmail.com</t>
+  </si>
+  <si>
+    <t>userS1B4PSlMpb@gmail.com</t>
+  </si>
+  <si>
+    <t>userCdoBUJXwFW@gmail.com</t>
+  </si>
+  <si>
+    <t>userCiQ0D6KkkP@gmail.com</t>
+  </si>
+  <si>
+    <t>user2vSWfdk4hB@gmail.com</t>
+  </si>
+  <si>
+    <t>userEBzNxjwPas@gmail.com</t>
+  </si>
+  <si>
+    <t>user4Vj1zcz6wu@gmail.com</t>
+  </si>
+  <si>
+    <t>userLBpbQJeYR0@gmail.com</t>
+  </si>
+  <si>
+    <t>userT3ExKMwUax@gmail.com</t>
+  </si>
+  <si>
+    <t>user0yYny6NwSe@gmail.com</t>
+  </si>
+  <si>
+    <t>userK5oYM3MTON@gmail.com</t>
+  </si>
+  <si>
+    <t>userLjW5I5jwZ4@gmail.com</t>
+  </si>
+  <si>
+    <t>userhlCKxDrKtT@gmail.com</t>
+  </si>
+  <si>
+    <t>userkFkAtYsexT@gmail.com</t>
+  </si>
+  <si>
+    <t>userWqtXT0Cmjg@gmail.com</t>
+  </si>
+  <si>
+    <t>user3B48M4QD5Q@gmail.com</t>
+  </si>
+  <si>
+    <t>userKRRgBcKBtO@gmail.com</t>
+  </si>
+  <si>
+    <t>user7uYwMcbqve@gmail.com</t>
+  </si>
+  <si>
+    <t>userevXgKFyl02@gmail.com</t>
+  </si>
+  <si>
+    <t>userFxXj4NtXvh@gmail.com</t>
+  </si>
+  <si>
+    <t>useruAIOnUWguh@gmail.com</t>
+  </si>
+  <si>
+    <t>userBlC3zz7cOB@gmail.com</t>
+  </si>
+  <si>
+    <t>userNmQTs8hFqV@gmail.com</t>
+  </si>
+  <si>
+    <t>usereazbRESivd@gmail.com</t>
+  </si>
+  <si>
+    <t>userk5mqzEwdBk@gmail.com</t>
+  </si>
+  <si>
+    <t>userAzbTatI0P5@gmail.com</t>
+  </si>
+  <si>
+    <t>userpo21rV7HII@gmail.com</t>
+  </si>
+  <si>
+    <t>userGPIlwtsAfJ@gmail.com</t>
+  </si>
+  <si>
+    <t>userPRtyCk8VSE@gmail.com</t>
+  </si>
+  <si>
+    <t>userL9kI2poEmH@gmail.com</t>
+  </si>
+  <si>
+    <t>userZPemQIywfM@gmail.com</t>
+  </si>
+  <si>
+    <t>userRaaDJYLuuD@gmail.com</t>
+  </si>
+  <si>
+    <t>user5uFiyH4NCh@gmail.com</t>
+  </si>
+  <si>
+    <t>user8Af35vjPyu@gmail.com</t>
+  </si>
+  <si>
+    <t>userxI7K7jv4Vs@gmail.com</t>
+  </si>
+  <si>
+    <t>user2D9X8eKAWA@gmail.com</t>
+  </si>
+  <si>
+    <t>usergddWaXkqDU@gmail.com</t>
+  </si>
+  <si>
+    <t>userTJC31H7QG2@gmail.com</t>
+  </si>
+  <si>
+    <t>userQuluKISITD@gmail.com</t>
+  </si>
+  <si>
+    <t>userPCqdKsqZCM@gmail.com</t>
+  </si>
+  <si>
+    <t>userZtv0zKP4hK@gmail.com</t>
+  </si>
+  <si>
+    <t>usermofxvSGUTe@gmail.com</t>
+  </si>
+  <si>
+    <t>userrU8FrGo4OE@gmail.com</t>
+  </si>
+  <si>
+    <t>user2tsKoFf6Aq@gmail.com</t>
+  </si>
+  <si>
+    <t>useruhMjtzhCib@gmail.com</t>
+  </si>
+  <si>
+    <t>userTbCuLKP2iM@gmail.com</t>
+  </si>
+  <si>
+    <t>userx8PPUfedl9@gmail.com</t>
+  </si>
+  <si>
+    <t>userjHCFdHQjoJ@gmail.com</t>
+  </si>
+  <si>
+    <t>userZKjuF9pVbd@gmail.com</t>
+  </si>
+  <si>
+    <t>userVFAwYZuMrl@gmail.com</t>
+  </si>
+  <si>
+    <t>useruLu3Qa9yZb@gmail.com</t>
+  </si>
+  <si>
+    <t>useramMScXpRfp@gmail.com</t>
+  </si>
+  <si>
+    <t>userxqQ6leg8v9@gmail.com</t>
+  </si>
+  <si>
+    <t>user2VhSPFtWc2@gmail.com</t>
+  </si>
+  <si>
+    <t>useri8MhXwxysL@gmail.com</t>
+  </si>
+  <si>
+    <t>userZ0EsdNZd1I@gmail.com</t>
+  </si>
+  <si>
+    <t>useryD4ew5FrpY@gmail.com</t>
+  </si>
+  <si>
+    <t>useriO7mGW7HJW@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2173,6 +2212,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2194,13 +2239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2515,22 +2561,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873D7A48-6AAD-4875-977B-B5247510D6AE}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:F197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B201" sqref="B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2550,3520 +2596,3622 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E3" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E6" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E7" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E9" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E10" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E11" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E12" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E13" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E16" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E18" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E19" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E20" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>117</v>
+      <c r="B21" s="6" t="s">
+        <v>116</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E21" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E22" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E23" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E25" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E26" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E27" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E28" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E29" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E30" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>118</v>
+      <c r="B31" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E31" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E32" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E33" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E34" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E35" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E36" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E38" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E39" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E40" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
+      <c r="B41" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E41" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
+      <c r="B42" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E42" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>119</v>
+      <c r="B43" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>119</v>
+      <c r="B44" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E45" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>120</v>
+      <c r="B46" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E46" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>120</v>
+      <c r="B47" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E47" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>120</v>
+      <c r="B48" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E48" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>120</v>
+      <c r="B49" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E49" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>120</v>
+      <c r="B50" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E50" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>103</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>120</v>
+      <c r="B51" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E51" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>105</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>120</v>
+      <c r="B52" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E52" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>106</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>120</v>
+      <c r="B53" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E53" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>108</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>120</v>
+      <c r="B54" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E54" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>109</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>120</v>
+      <c r="B55" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E55" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>111</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>120</v>
+      <c r="B56" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E56" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>114</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>120</v>
+      <c r="B57" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E57" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>115</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>120</v>
+      <c r="B58" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>119</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E59" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>126</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E60" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>127</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>121</v>
+      <c r="B61" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E61" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>128</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>121</v>
+      <c r="B62" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E62" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>131</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>121</v>
+      <c r="B63" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E63" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>132</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>121</v>
+      <c r="B64" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E64" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>134</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>121</v>
+      <c r="B65" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E65" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>135</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>121</v>
+      <c r="B66" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E66" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>136</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>121</v>
+      <c r="B67" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E67" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>137</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>121</v>
+      <c r="B68" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E68" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>138</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E69" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>141</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>122</v>
+      <c r="B70" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E70" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>142</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>122</v>
+      <c r="B71" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E71" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>143</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>122</v>
+      <c r="B72" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E72" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>147</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>122</v>
+      <c r="B73" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E73" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>148</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>122</v>
+      <c r="B74" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E74" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>149</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>122</v>
+      <c r="B75" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E75" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>122</v>
+      <c r="B76" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E76" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>151</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>122</v>
+      <c r="B77" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E77" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>152</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E78" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>154</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E79" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>155</v>
       </c>
-      <c r="B80" t="s">
-        <v>123</v>
+      <c r="B80" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E80" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>156</v>
       </c>
-      <c r="B81" t="s">
-        <v>123</v>
+      <c r="B81" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E81" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>159</v>
       </c>
-      <c r="B82" t="s">
-        <v>123</v>
+      <c r="B82" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E82" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>160</v>
       </c>
-      <c r="B83" t="s">
-        <v>123</v>
+      <c r="B83" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E83" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>162</v>
       </c>
-      <c r="B84" t="s">
-        <v>123</v>
+      <c r="B84" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E84" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>165</v>
       </c>
-      <c r="B85" t="s">
-        <v>123</v>
+      <c r="B85" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E85" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>168</v>
       </c>
-      <c r="B86" t="s">
-        <v>123</v>
+      <c r="B86" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E86" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>170</v>
       </c>
-      <c r="B87" t="s">
-        <v>123</v>
+      <c r="B87" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E87" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>173</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E88" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>174</v>
       </c>
-      <c r="B89" t="s">
-        <v>123</v>
+      <c r="B89" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E89" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>175</v>
       </c>
-      <c r="B90" t="s">
-        <v>123</v>
+      <c r="B90" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
-        <v>123</v>
+      <c r="B91" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E91" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>181</v>
       </c>
-      <c r="B92" t="s">
-        <v>123</v>
+      <c r="B92" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>185</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E93" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>124</v>
+      <c r="B94" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E94" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" t="s">
-        <v>124</v>
+      <c r="B95" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E95" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
-      <c r="B96" t="s">
-        <v>124</v>
+      <c r="B96" s="6" t="s">
+        <v>122</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E96" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4"/>
-      <c r="B97" t="s">
-        <v>124</v>
+      <c r="B97" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E97" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
-      <c r="B98" t="s">
-        <v>124</v>
+      <c r="B98" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E98" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
-      <c r="B99" t="s">
-        <v>124</v>
+      <c r="B99" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E99" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
-      <c r="B100" t="s">
-        <v>124</v>
+      <c r="B100" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E100" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
-      <c r="B101" t="s">
-        <v>124</v>
+      <c r="B101" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E101" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>124</v>
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B102" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E102" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>124</v>
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B103" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E103" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>125</v>
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B104" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E104" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>125</v>
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E105" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>125</v>
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E106" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>125</v>
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B107" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E107" t="s">
-        <v>620</v>
+        <v>627</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>125</v>
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B108" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E108" t="s">
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>125</v>
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B109" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E109" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>125</v>
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B110" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E110" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>125</v>
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B111" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E111" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>125</v>
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E112" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>125</v>
+    <row r="113" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B113" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E113" t="s">
-        <v>626</v>
+        <v>633</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
-        <v>126</v>
+    <row r="114" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B114" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E114" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="115" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>126</v>
+    <row r="115" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B115" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E115" t="s">
-        <v>628</v>
+        <v>635</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>126</v>
+    <row r="116" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B116" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E116" t="s">
-        <v>629</v>
+        <v>636</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>126</v>
+    <row r="117" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B117" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E117" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>126</v>
+    <row r="118" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B118" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E118" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>126</v>
+    <row r="119" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B119" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E119" t="s">
-        <v>632</v>
+        <v>639</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>133</v>
+    <row r="120" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B120" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E120" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>126</v>
+    <row r="121" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B121" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E121" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>127</v>
+    <row r="122" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B122" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E122" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>127</v>
+    <row r="123" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E123" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>127</v>
+    <row r="124" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B124" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E124" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>127</v>
+    <row r="125" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B125" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E125" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="126" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>127</v>
+    <row r="126" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B126" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E126" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="127" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>127</v>
+    <row r="127" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E127" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="128" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>127</v>
+    <row r="128" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E128" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>127</v>
+    <row r="129" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B129" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E129" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="130" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>127</v>
+    <row r="130" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E130" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>127</v>
+    <row r="131" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E131" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>127</v>
+    <row r="132" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B132" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E132" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>128</v>
+    <row r="133" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B133" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E133" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>128</v>
+    <row r="134" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E134" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>128</v>
+    <row r="135" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B135" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E135" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>128</v>
+    <row r="136" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B136" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E136" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>128</v>
+    <row r="137" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E137" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B138" t="s">
-        <v>128</v>
+    <row r="138" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B138" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E138" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="139" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>128</v>
+    <row r="139" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B139" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E139" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>128</v>
+    <row r="140" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B140" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E140" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>128</v>
+    <row r="141" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E141" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>128</v>
+    <row r="142" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B142" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E142" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>129</v>
+    <row r="143" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B143" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E143" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B144" t="s">
-        <v>129</v>
+    <row r="144" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B144" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E144" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>129</v>
+    <row r="145" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E145" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="146" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B146" t="s">
-        <v>129</v>
+    <row r="146" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E146" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B147" t="s">
-        <v>129</v>
+    <row r="147" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E147" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B148" t="s">
-        <v>129</v>
+    <row r="148" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E148" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B149" t="s">
-        <v>129</v>
+    <row r="149" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B149" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E149" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
-        <v>129</v>
+    <row r="150" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B150" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E150" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
-        <v>129</v>
+    <row r="151" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E151" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="152" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
-        <v>130</v>
+    <row r="152" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E152" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="153" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>130</v>
+    <row r="153" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B153" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E153" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B154" t="s">
-        <v>130</v>
+    <row r="154" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B154" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E154" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="155" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>130</v>
+    <row r="155" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E155" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>130</v>
+    <row r="156" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E156" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B157" t="s">
-        <v>130</v>
+    <row r="157" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B157" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E157" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
-        <v>130</v>
+    <row r="158" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B158" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E158" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
-        <v>131</v>
+    <row r="159" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E159" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>131</v>
+    <row r="160" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B160" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E160" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>131</v>
+    <row r="161" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B161" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E161" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B162" t="s">
-        <v>131</v>
+    <row r="162" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B162" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E162" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
-        <v>131</v>
+    <row r="163" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B163" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E163" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="164" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
-        <v>131</v>
+    <row r="164" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B164" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E164" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="165" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
-        <v>131</v>
+    <row r="165" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B165" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E165" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="166" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
-        <v>131</v>
+    <row r="166" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B166" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E166" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="167" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
-        <v>131</v>
+    <row r="167" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B167" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E167" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="168" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
-        <v>131</v>
+    <row r="168" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B168" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E168" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
-        <v>131</v>
+    <row r="169" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B169" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E169" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="170" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>131</v>
+    <row r="170" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B170" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E170" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="171" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>131</v>
+    <row r="171" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B171" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E171" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
-        <v>132</v>
+    <row r="172" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B172" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E172" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="173" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
-        <v>132</v>
+    <row r="173" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B173" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E173" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="174" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>132</v>
+    <row r="174" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B174" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E174" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B175" t="s">
-        <v>132</v>
+    <row r="175" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B175" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E175" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
-        <v>132</v>
+    <row r="176" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B176" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E176" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="177" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
-        <v>132</v>
+    <row r="177" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B177" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E177" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="178" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
-        <v>132</v>
+    <row r="178" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B178" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E178" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="179" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>132</v>
+    <row r="179" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B179" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E179" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="180" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>132</v>
+    <row r="180" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E180" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B181" t="s">
-        <v>132</v>
+    <row r="181" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E181" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
-        <v>134</v>
+    <row r="182" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B182" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E182" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
-        <v>134</v>
+    <row r="183" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E183" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="184" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
-        <v>134</v>
+    <row r="184" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B184" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E184" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
-        <v>134</v>
+    <row r="185" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B185" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E185" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
-        <v>134</v>
+    <row r="186" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B186" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E186" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
-        <v>134</v>
+    <row r="187" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B187" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E187" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
-        <v>134</v>
+    <row r="188" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E188" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
-        <v>134</v>
+    <row r="189" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B189" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E189" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="190" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
-        <v>134</v>
+    <row r="190" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B190" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E190" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
-        <v>134</v>
+    <row r="191" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B191" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E191" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B192" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E192" t="s">
+        <v>712</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B193" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E193" t="s">
+        <v>713</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B194" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E194" t="s">
+        <v>714</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E195" t="s">
+        <v>715</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="196" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B196" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E196" t="s">
+        <v>716</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="2:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E197" t="s">
+        <v>717</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
